--- a/NRI_STLF_Data/WeatherData/T_zanjan/T_zanjan89.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_zanjan/T_zanjan89.xlsx
@@ -16,16 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Thunderstorm</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -354,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:AA365"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>89</v>
       </c>
@@ -379,7 +386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>89</v>
       </c>
@@ -396,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>89</v>
       </c>
@@ -413,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>89</v>
       </c>
@@ -430,7 +437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>89</v>
       </c>
@@ -447,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>89</v>
       </c>
@@ -464,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>89</v>
       </c>
@@ -481,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>89</v>
       </c>
@@ -498,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>89</v>
       </c>
@@ -515,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>89</v>
       </c>
@@ -532,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>89</v>
       </c>
@@ -549,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>89</v>
       </c>
@@ -566,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>89</v>
       </c>
@@ -583,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>89</v>
       </c>
@@ -600,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>89</v>
       </c>
@@ -617,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>89</v>
       </c>
@@ -634,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>89</v>
       </c>
@@ -651,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>89</v>
       </c>
@@ -668,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>89</v>
       </c>
@@ -685,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>89</v>
       </c>
@@ -702,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>89</v>
       </c>
@@ -719,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>89</v>
       </c>
@@ -736,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>89</v>
       </c>
@@ -753,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>89</v>
       </c>
@@ -770,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>89</v>
       </c>
@@ -787,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>89</v>
       </c>
@@ -804,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>89</v>
       </c>
@@ -821,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>89</v>
       </c>
@@ -838,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>89</v>
       </c>
@@ -855,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>89</v>
       </c>
@@ -872,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>89</v>
       </c>
@@ -889,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>89</v>
       </c>
@@ -906,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>89</v>
       </c>
@@ -923,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>89</v>
       </c>
@@ -940,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>89</v>
       </c>
@@ -957,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>89</v>
       </c>
@@ -974,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>89</v>
       </c>
@@ -991,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>89</v>
       </c>
@@ -1008,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>89</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>89</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>89</v>
       </c>
@@ -1059,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>89</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>89</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>89</v>
       </c>
@@ -1110,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>89</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>89</v>
       </c>
@@ -1144,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>89</v>
       </c>
@@ -1161,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>89</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>89</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>89</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>89</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>89</v>
       </c>
@@ -1246,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>89</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>89</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>89</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>89</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>89</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>89</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>89</v>
       </c>
@@ -1365,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>89</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>89</v>
       </c>
@@ -1399,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>89</v>
       </c>
@@ -1416,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>89</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>89</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>89</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>89</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>89</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>89</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>89</v>
       </c>
@@ -1535,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>89</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>89</v>
       </c>
@@ -1569,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>89</v>
       </c>
@@ -1586,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>89</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>89</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>89</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>89</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>89</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>89</v>
       </c>
@@ -1688,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>89</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>89</v>
       </c>
@@ -1722,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>89</v>
       </c>
@@ -1739,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>89</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>89</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>89</v>
       </c>
@@ -1790,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>89</v>
       </c>
@@ -1807,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>89</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>89</v>
       </c>
@@ -1841,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>89</v>
       </c>
@@ -1858,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1875,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1909,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>89</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>89</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>89</v>
       </c>
@@ -1960,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>89</v>
       </c>
@@ -1977,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>89</v>
       </c>
@@ -1994,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>89</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>89</v>
       </c>
@@ -2028,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>89</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>89</v>
       </c>
@@ -2062,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>89</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>89</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>89</v>
       </c>
@@ -2113,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>89</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>89</v>
       </c>
@@ -2147,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>89</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>89</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>89</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>89</v>
       </c>
@@ -2215,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>89</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>89</v>
       </c>
@@ -2249,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>89</v>
       </c>
@@ -2266,7 +2273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>89</v>
       </c>
@@ -2283,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>89</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>89</v>
       </c>
@@ -2317,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>89</v>
       </c>
@@ -2334,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>89</v>
       </c>
@@ -2351,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>89</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>89</v>
       </c>
@@ -2385,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>89</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>89</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>89</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>89</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>89</v>
       </c>
@@ -2470,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>89</v>
       </c>
@@ -2487,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>89</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>89</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>89</v>
       </c>
@@ -2538,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>89</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>89</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>89</v>
       </c>
@@ -2589,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>89</v>
       </c>
@@ -2606,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>89</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>89</v>
       </c>
@@ -2640,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>89</v>
       </c>
@@ -2657,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>89</v>
       </c>
@@ -2674,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>89</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>89</v>
       </c>
@@ -2708,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>89</v>
       </c>
@@ -2725,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>89</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>89</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>89</v>
       </c>
@@ -2776,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>89</v>
       </c>
@@ -2793,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>89</v>
       </c>
@@ -2810,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>89</v>
       </c>
@@ -2827,7 +2834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>89</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>89</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>89</v>
       </c>
@@ -2878,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>89</v>
       </c>
@@ -2895,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>89</v>
       </c>
@@ -2912,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>89</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>89</v>
       </c>
@@ -2946,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>89</v>
       </c>
@@ -2963,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>89</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>89</v>
       </c>
@@ -2997,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>89</v>
       </c>
@@ -3014,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>89</v>
       </c>
@@ -3031,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>89</v>
       </c>
@@ -3048,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>89</v>
       </c>
@@ -3065,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>89</v>
       </c>
@@ -3082,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>89</v>
       </c>
@@ -3099,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>89</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>89</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>89</v>
       </c>
@@ -3150,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>89</v>
       </c>
@@ -3167,7 +3174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>89</v>
       </c>
@@ -3184,7 +3191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>89</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>89</v>
       </c>
@@ -3218,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>89</v>
       </c>
@@ -3235,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>89</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>89</v>
       </c>
@@ -3269,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>89</v>
       </c>
@@ -3286,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>89</v>
       </c>
@@ -3303,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>89</v>
       </c>
@@ -3320,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>89</v>
       </c>
@@ -3337,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>89</v>
       </c>
@@ -3354,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>89</v>
       </c>
@@ -3371,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>89</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>89</v>
       </c>
@@ -3405,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>89</v>
       </c>
@@ -3422,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>89</v>
       </c>
@@ -3439,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>89</v>
       </c>
@@ -3456,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>89</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>89</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>89</v>
       </c>
@@ -3507,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>89</v>
       </c>
@@ -3524,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>89</v>
       </c>
@@ -3541,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>89</v>
       </c>
@@ -3558,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>89</v>
       </c>
@@ -3575,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>89</v>
       </c>
@@ -3592,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>89</v>
       </c>
@@ -3609,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>89</v>
       </c>
@@ -3626,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>89</v>
       </c>
@@ -3643,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>89</v>
       </c>
@@ -3660,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>89</v>
       </c>
@@ -3677,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>89</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>89</v>
       </c>
@@ -3711,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>89</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>89</v>
       </c>
@@ -3745,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>89</v>
       </c>
@@ -3762,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>89</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>89</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>89</v>
       </c>
@@ -3813,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>89</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>89</v>
       </c>
@@ -3847,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>89</v>
       </c>
@@ -3864,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>89</v>
       </c>
@@ -3881,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>89</v>
       </c>
@@ -3898,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>89</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>89</v>
       </c>
@@ -3932,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>89</v>
       </c>
@@ -3949,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>89</v>
       </c>
@@ -3966,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>89</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>89</v>
       </c>
@@ -4000,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>89</v>
       </c>
@@ -4017,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>89</v>
       </c>
@@ -4034,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>89</v>
       </c>
@@ -4051,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>89</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>89</v>
       </c>
@@ -4085,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>89</v>
       </c>
@@ -4102,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>89</v>
       </c>
@@ -4119,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>89</v>
       </c>
@@ -4136,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>89</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>89</v>
       </c>
@@ -4170,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>89</v>
       </c>
@@ -4187,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>89</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>89</v>
       </c>
@@ -4221,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>89</v>
       </c>
@@ -4238,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>89</v>
       </c>
@@ -4255,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>89</v>
       </c>
@@ -4272,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>89</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>89</v>
       </c>
@@ -4306,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>89</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>89</v>
       </c>
@@ -4340,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>89</v>
       </c>
@@ -4357,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>89</v>
       </c>
@@ -4374,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>89</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>89</v>
       </c>
@@ -4408,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>89</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>89</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>89</v>
       </c>
@@ -4459,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>89</v>
       </c>
@@ -4476,7 +4483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>89</v>
       </c>
@@ -4493,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>89</v>
       </c>
@@ -4510,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>89</v>
       </c>
@@ -4527,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>89</v>
       </c>
@@ -4544,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>89</v>
       </c>
@@ -4561,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>89</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>89</v>
       </c>
@@ -4595,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>89</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>89</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>89</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>89</v>
       </c>
@@ -4663,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>89</v>
       </c>
@@ -4679,8 +4686,14 @@
       <c r="E254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>89</v>
       </c>
@@ -4696,8 +4709,68 @@
       <c r="E255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <v>30</v>
+      </c>
+      <c r="G255">
+        <v>23</v>
+      </c>
+      <c r="H255">
+        <v>17</v>
+      </c>
+      <c r="I255">
+        <v>3</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>-5</v>
+      </c>
+      <c r="L255">
+        <v>39</v>
+      </c>
+      <c r="M255">
+        <v>21</v>
+      </c>
+      <c r="N255">
+        <v>10</v>
+      </c>
+      <c r="O255">
+        <v>1016</v>
+      </c>
+      <c r="P255">
+        <v>1015</v>
+      </c>
+      <c r="Q255">
+        <v>1013</v>
+      </c>
+      <c r="R255">
+        <v>10</v>
+      </c>
+      <c r="S255">
+        <v>10</v>
+      </c>
+      <c r="T255">
+        <v>10</v>
+      </c>
+      <c r="U255">
+        <v>35</v>
+      </c>
+      <c r="V255">
+        <v>6</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>1</v>
+      </c>
+      <c r="AA255">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>89</v>
       </c>
@@ -4713,8 +4786,68 @@
       <c r="E256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <v>31</v>
+      </c>
+      <c r="G256">
+        <v>23</v>
+      </c>
+      <c r="H256">
+        <v>15</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256">
+        <v>-3</v>
+      </c>
+      <c r="K256">
+        <v>-9</v>
+      </c>
+      <c r="L256">
+        <v>42</v>
+      </c>
+      <c r="M256">
+        <v>17</v>
+      </c>
+      <c r="N256">
+        <v>7</v>
+      </c>
+      <c r="O256">
+        <v>1018</v>
+      </c>
+      <c r="P256">
+        <v>1017</v>
+      </c>
+      <c r="Q256">
+        <v>1016</v>
+      </c>
+      <c r="R256">
+        <v>10</v>
+      </c>
+      <c r="S256">
+        <v>10</v>
+      </c>
+      <c r="T256">
+        <v>10</v>
+      </c>
+      <c r="U256">
+        <v>11</v>
+      </c>
+      <c r="V256">
+        <v>5</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>1</v>
+      </c>
+      <c r="AA256">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>89</v>
       </c>
@@ -4730,8 +4863,68 @@
       <c r="E257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257">
+        <v>33</v>
+      </c>
+      <c r="G257">
+        <v>26</v>
+      </c>
+      <c r="H257">
+        <v>18</v>
+      </c>
+      <c r="I257">
+        <v>5</v>
+      </c>
+      <c r="J257">
+        <v>3</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>40</v>
+      </c>
+      <c r="M257">
+        <v>21</v>
+      </c>
+      <c r="N257">
+        <v>14</v>
+      </c>
+      <c r="O257">
+        <v>1022</v>
+      </c>
+      <c r="P257">
+        <v>1021</v>
+      </c>
+      <c r="Q257">
+        <v>1019</v>
+      </c>
+      <c r="R257">
+        <v>10</v>
+      </c>
+      <c r="S257">
+        <v>10</v>
+      </c>
+      <c r="T257">
+        <v>10</v>
+      </c>
+      <c r="U257">
+        <v>26</v>
+      </c>
+      <c r="V257">
+        <v>10</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>3</v>
+      </c>
+      <c r="AA257">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>89</v>
       </c>
@@ -4747,8 +4940,68 @@
       <c r="E258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <v>33</v>
+      </c>
+      <c r="G258">
+        <v>24</v>
+      </c>
+      <c r="H258">
+        <v>17</v>
+      </c>
+      <c r="I258">
+        <v>5</v>
+      </c>
+      <c r="J258">
+        <v>4</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>42</v>
+      </c>
+      <c r="M258">
+        <v>22</v>
+      </c>
+      <c r="N258">
+        <v>14</v>
+      </c>
+      <c r="O258">
+        <v>1023</v>
+      </c>
+      <c r="P258">
+        <v>1021</v>
+      </c>
+      <c r="Q258">
+        <v>1019</v>
+      </c>
+      <c r="R258">
+        <v>10</v>
+      </c>
+      <c r="S258">
+        <v>10</v>
+      </c>
+      <c r="T258">
+        <v>10</v>
+      </c>
+      <c r="U258">
+        <v>34</v>
+      </c>
+      <c r="V258">
+        <v>6</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>1</v>
+      </c>
+      <c r="AA258">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>89</v>
       </c>
@@ -4764,8 +5017,68 @@
       <c r="E259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <v>31</v>
+      </c>
+      <c r="G259">
+        <v>23</v>
+      </c>
+      <c r="H259">
+        <v>17</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259">
+        <v>-1</v>
+      </c>
+      <c r="K259">
+        <v>-3</v>
+      </c>
+      <c r="L259">
+        <v>30</v>
+      </c>
+      <c r="M259">
+        <v>16</v>
+      </c>
+      <c r="N259">
+        <v>12</v>
+      </c>
+      <c r="O259">
+        <v>1019</v>
+      </c>
+      <c r="P259">
+        <v>1017</v>
+      </c>
+      <c r="Q259">
+        <v>1016</v>
+      </c>
+      <c r="R259">
+        <v>10</v>
+      </c>
+      <c r="S259">
+        <v>10</v>
+      </c>
+      <c r="T259">
+        <v>10</v>
+      </c>
+      <c r="U259">
+        <v>26</v>
+      </c>
+      <c r="V259">
+        <v>16</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>1</v>
+      </c>
+      <c r="AA259">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>89</v>
       </c>
@@ -4781,8 +5094,68 @@
       <c r="E260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <v>34</v>
+      </c>
+      <c r="G260">
+        <v>26</v>
+      </c>
+      <c r="H260">
+        <v>17</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>-2</v>
+      </c>
+      <c r="K260">
+        <v>-5</v>
+      </c>
+      <c r="L260">
+        <v>26</v>
+      </c>
+      <c r="M260">
+        <v>14</v>
+      </c>
+      <c r="N260">
+        <v>10</v>
+      </c>
+      <c r="O260">
+        <v>1018</v>
+      </c>
+      <c r="P260">
+        <v>1017</v>
+      </c>
+      <c r="Q260">
+        <v>1015</v>
+      </c>
+      <c r="R260">
+        <v>10</v>
+      </c>
+      <c r="S260">
+        <v>10</v>
+      </c>
+      <c r="T260">
+        <v>10</v>
+      </c>
+      <c r="U260">
+        <v>35</v>
+      </c>
+      <c r="V260">
+        <v>11</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>3</v>
+      </c>
+      <c r="AA260">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>89</v>
       </c>
@@ -4798,8 +5171,68 @@
       <c r="E261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <v>33</v>
+      </c>
+      <c r="G261">
+        <v>26</v>
+      </c>
+      <c r="H261">
+        <v>19</v>
+      </c>
+      <c r="I261">
+        <v>6</v>
+      </c>
+      <c r="J261">
+        <v>3</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>37</v>
+      </c>
+      <c r="M261">
+        <v>21</v>
+      </c>
+      <c r="N261">
+        <v>14</v>
+      </c>
+      <c r="O261">
+        <v>1018</v>
+      </c>
+      <c r="P261">
+        <v>1017</v>
+      </c>
+      <c r="Q261">
+        <v>1016</v>
+      </c>
+      <c r="R261">
+        <v>10</v>
+      </c>
+      <c r="S261">
+        <v>10</v>
+      </c>
+      <c r="T261">
+        <v>10</v>
+      </c>
+      <c r="U261">
+        <v>40</v>
+      </c>
+      <c r="V261">
+        <v>16</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>2</v>
+      </c>
+      <c r="AA261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>89</v>
       </c>
@@ -4815,8 +5248,68 @@
       <c r="E262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <v>32</v>
+      </c>
+      <c r="G262">
+        <v>26</v>
+      </c>
+      <c r="H262">
+        <v>21</v>
+      </c>
+      <c r="I262">
+        <v>8</v>
+      </c>
+      <c r="J262">
+        <v>4</v>
+      </c>
+      <c r="K262">
+        <v>2</v>
+      </c>
+      <c r="L262">
+        <v>43</v>
+      </c>
+      <c r="M262">
+        <v>22</v>
+      </c>
+      <c r="N262">
+        <v>15</v>
+      </c>
+      <c r="O262">
+        <v>1019</v>
+      </c>
+      <c r="P262">
+        <v>1018</v>
+      </c>
+      <c r="Q262">
+        <v>1017</v>
+      </c>
+      <c r="R262">
+        <v>10</v>
+      </c>
+      <c r="S262">
+        <v>10</v>
+      </c>
+      <c r="T262">
+        <v>10</v>
+      </c>
+      <c r="U262">
+        <v>34</v>
+      </c>
+      <c r="V262">
+        <v>16</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>3</v>
+      </c>
+      <c r="AA262">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>89</v>
       </c>
@@ -4832,8 +5325,68 @@
       <c r="E263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263">
+        <v>31</v>
+      </c>
+      <c r="G263">
+        <v>26</v>
+      </c>
+      <c r="H263">
+        <v>22</v>
+      </c>
+      <c r="I263">
+        <v>11</v>
+      </c>
+      <c r="J263">
+        <v>6</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <v>50</v>
+      </c>
+      <c r="M263">
+        <v>27</v>
+      </c>
+      <c r="N263">
+        <v>18</v>
+      </c>
+      <c r="O263">
+        <v>1020</v>
+      </c>
+      <c r="P263">
+        <v>1019</v>
+      </c>
+      <c r="Q263">
+        <v>1018</v>
+      </c>
+      <c r="R263">
+        <v>10</v>
+      </c>
+      <c r="S263">
+        <v>9</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>37</v>
+      </c>
+      <c r="V263">
+        <v>26</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>4</v>
+      </c>
+      <c r="AA263">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>89</v>
       </c>
@@ -4849,8 +5402,68 @@
       <c r="E264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264">
+        <v>29</v>
+      </c>
+      <c r="G264">
+        <v>24</v>
+      </c>
+      <c r="H264">
+        <v>21</v>
+      </c>
+      <c r="I264">
+        <v>6</v>
+      </c>
+      <c r="J264">
+        <v>2</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>33</v>
+      </c>
+      <c r="M264">
+        <v>21</v>
+      </c>
+      <c r="N264">
+        <v>16</v>
+      </c>
+      <c r="O264">
+        <v>1021</v>
+      </c>
+      <c r="P264">
+        <v>1020</v>
+      </c>
+      <c r="Q264">
+        <v>1018</v>
+      </c>
+      <c r="R264">
+        <v>10</v>
+      </c>
+      <c r="S264">
+        <v>10</v>
+      </c>
+      <c r="T264">
+        <v>10</v>
+      </c>
+      <c r="U264">
+        <v>45</v>
+      </c>
+      <c r="V264">
+        <v>19</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>1</v>
+      </c>
+      <c r="AA264">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>89</v>
       </c>
@@ -4866,8 +5479,68 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265">
+        <v>30</v>
+      </c>
+      <c r="G265">
+        <v>24</v>
+      </c>
+      <c r="H265">
+        <v>19</v>
+      </c>
+      <c r="I265">
+        <v>6</v>
+      </c>
+      <c r="J265">
+        <v>3</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>37</v>
+      </c>
+      <c r="M265">
+        <v>22</v>
+      </c>
+      <c r="N265">
+        <v>17</v>
+      </c>
+      <c r="O265">
+        <v>1021</v>
+      </c>
+      <c r="P265">
+        <v>1019</v>
+      </c>
+      <c r="Q265">
+        <v>1017</v>
+      </c>
+      <c r="R265">
+        <v>10</v>
+      </c>
+      <c r="S265">
+        <v>10</v>
+      </c>
+      <c r="T265">
+        <v>10</v>
+      </c>
+      <c r="U265">
+        <v>34</v>
+      </c>
+      <c r="V265">
+        <v>13</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>1</v>
+      </c>
+      <c r="AA265">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>89</v>
       </c>
@@ -4883,8 +5556,68 @@
       <c r="E266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266">
+        <v>32</v>
+      </c>
+      <c r="G266">
+        <v>24</v>
+      </c>
+      <c r="H266">
+        <v>18</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>-1</v>
+      </c>
+      <c r="K266">
+        <v>-5</v>
+      </c>
+      <c r="L266">
+        <v>22</v>
+      </c>
+      <c r="M266">
+        <v>16</v>
+      </c>
+      <c r="N266">
+        <v>13</v>
+      </c>
+      <c r="O266">
+        <v>1021</v>
+      </c>
+      <c r="P266">
+        <v>1019</v>
+      </c>
+      <c r="Q266">
+        <v>1017</v>
+      </c>
+      <c r="R266">
+        <v>10</v>
+      </c>
+      <c r="S266">
+        <v>10</v>
+      </c>
+      <c r="T266">
+        <v>10</v>
+      </c>
+      <c r="U266">
+        <v>23</v>
+      </c>
+      <c r="V266">
+        <v>8</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>1</v>
+      </c>
+      <c r="AA266">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>89</v>
       </c>
@@ -4900,8 +5633,68 @@
       <c r="E267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267">
+        <v>33</v>
+      </c>
+      <c r="G267">
+        <v>26</v>
+      </c>
+      <c r="H267">
+        <v>19</v>
+      </c>
+      <c r="I267">
+        <v>7</v>
+      </c>
+      <c r="J267">
+        <v>4</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+      <c r="L267">
+        <v>37</v>
+      </c>
+      <c r="M267">
+        <v>23</v>
+      </c>
+      <c r="N267">
+        <v>15</v>
+      </c>
+      <c r="O267">
+        <v>1020</v>
+      </c>
+      <c r="P267">
+        <v>1018</v>
+      </c>
+      <c r="Q267">
+        <v>1017</v>
+      </c>
+      <c r="R267">
+        <v>10</v>
+      </c>
+      <c r="S267">
+        <v>10</v>
+      </c>
+      <c r="T267">
+        <v>10</v>
+      </c>
+      <c r="U267">
+        <v>37</v>
+      </c>
+      <c r="V267">
+        <v>16</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>3</v>
+      </c>
+      <c r="AA267">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>89</v>
       </c>
@@ -4917,8 +5710,68 @@
       <c r="E268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268">
+        <v>33</v>
+      </c>
+      <c r="G268">
+        <v>27</v>
+      </c>
+      <c r="H268">
+        <v>21</v>
+      </c>
+      <c r="I268">
+        <v>8</v>
+      </c>
+      <c r="J268">
+        <v>6</v>
+      </c>
+      <c r="K268">
+        <v>4</v>
+      </c>
+      <c r="L268">
+        <v>43</v>
+      </c>
+      <c r="M268">
+        <v>23</v>
+      </c>
+      <c r="N268">
+        <v>16</v>
+      </c>
+      <c r="O268">
+        <v>1018</v>
+      </c>
+      <c r="P268">
+        <v>1016</v>
+      </c>
+      <c r="Q268">
+        <v>1014</v>
+      </c>
+      <c r="R268">
+        <v>10</v>
+      </c>
+      <c r="S268">
+        <v>10</v>
+      </c>
+      <c r="T268">
+        <v>10</v>
+      </c>
+      <c r="U268">
+        <v>26</v>
+      </c>
+      <c r="V268">
+        <v>16</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>3</v>
+      </c>
+      <c r="AA268">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>89</v>
       </c>
@@ -4934,8 +5787,68 @@
       <c r="E269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269">
+        <v>35</v>
+      </c>
+      <c r="G269">
+        <v>29</v>
+      </c>
+      <c r="H269">
+        <v>23</v>
+      </c>
+      <c r="I269">
+        <v>8</v>
+      </c>
+      <c r="J269">
+        <v>4</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>38</v>
+      </c>
+      <c r="M269">
+        <v>19</v>
+      </c>
+      <c r="N269">
+        <v>12</v>
+      </c>
+      <c r="O269">
+        <v>1016</v>
+      </c>
+      <c r="P269">
+        <v>1014</v>
+      </c>
+      <c r="Q269">
+        <v>1012</v>
+      </c>
+      <c r="R269">
+        <v>10</v>
+      </c>
+      <c r="S269">
+        <v>10</v>
+      </c>
+      <c r="T269">
+        <v>10</v>
+      </c>
+      <c r="U269">
+        <v>26</v>
+      </c>
+      <c r="V269">
+        <v>14</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+      <c r="Y269">
+        <v>3</v>
+      </c>
+      <c r="AA269">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>89</v>
       </c>
@@ -4951,8 +5864,68 @@
       <c r="E270">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270">
+        <v>36</v>
+      </c>
+      <c r="G270">
+        <v>30</v>
+      </c>
+      <c r="H270">
+        <v>25</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270">
+        <v>-1</v>
+      </c>
+      <c r="K270">
+        <v>-2</v>
+      </c>
+      <c r="L270">
+        <v>18</v>
+      </c>
+      <c r="M270">
+        <v>12</v>
+      </c>
+      <c r="N270">
+        <v>9</v>
+      </c>
+      <c r="O270">
+        <v>1016</v>
+      </c>
+      <c r="P270">
+        <v>1015</v>
+      </c>
+      <c r="Q270">
+        <v>1013</v>
+      </c>
+      <c r="R270">
+        <v>10</v>
+      </c>
+      <c r="S270">
+        <v>10</v>
+      </c>
+      <c r="T270">
+        <v>10</v>
+      </c>
+      <c r="U270">
+        <v>29</v>
+      </c>
+      <c r="V270">
+        <v>21</v>
+      </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
+      <c r="Y270">
+        <v>1</v>
+      </c>
+      <c r="AA270">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>89</v>
       </c>
@@ -4968,8 +5941,68 @@
       <c r="E271">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271">
+        <v>37</v>
+      </c>
+      <c r="G271">
+        <v>28</v>
+      </c>
+      <c r="H271">
+        <v>19</v>
+      </c>
+      <c r="I271">
+        <v>10</v>
+      </c>
+      <c r="J271">
+        <v>5</v>
+      </c>
+      <c r="K271">
+        <v>-1</v>
+      </c>
+      <c r="L271">
+        <v>46</v>
+      </c>
+      <c r="M271">
+        <v>24</v>
+      </c>
+      <c r="N271">
+        <v>9</v>
+      </c>
+      <c r="O271">
+        <v>1020</v>
+      </c>
+      <c r="P271">
+        <v>1019</v>
+      </c>
+      <c r="Q271">
+        <v>1016</v>
+      </c>
+      <c r="R271">
+        <v>10</v>
+      </c>
+      <c r="S271">
+        <v>10</v>
+      </c>
+      <c r="T271">
+        <v>10</v>
+      </c>
+      <c r="U271">
+        <v>23</v>
+      </c>
+      <c r="V271">
+        <v>6</v>
+      </c>
+      <c r="X271">
+        <v>0</v>
+      </c>
+      <c r="Y271">
+        <v>1</v>
+      </c>
+      <c r="AA271">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>89</v>
       </c>
@@ -4985,8 +6018,68 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272">
+        <v>37</v>
+      </c>
+      <c r="G272">
+        <v>28</v>
+      </c>
+      <c r="H272">
+        <v>20</v>
+      </c>
+      <c r="I272">
+        <v>12</v>
+      </c>
+      <c r="J272">
+        <v>3</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>35</v>
+      </c>
+      <c r="M272">
+        <v>18</v>
+      </c>
+      <c r="N272">
+        <v>10</v>
+      </c>
+      <c r="O272">
+        <v>1018</v>
+      </c>
+      <c r="P272">
+        <v>1015</v>
+      </c>
+      <c r="Q272">
+        <v>1012</v>
+      </c>
+      <c r="R272">
+        <v>10</v>
+      </c>
+      <c r="S272">
+        <v>10</v>
+      </c>
+      <c r="T272">
+        <v>10</v>
+      </c>
+      <c r="U272">
+        <v>37</v>
+      </c>
+      <c r="V272">
+        <v>13</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>1</v>
+      </c>
+      <c r="AA272">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>89</v>
       </c>
@@ -5002,8 +6095,68 @@
       <c r="E273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273">
+        <v>26</v>
+      </c>
+      <c r="G273">
+        <v>24</v>
+      </c>
+      <c r="H273">
+        <v>22</v>
+      </c>
+      <c r="I273">
+        <v>14</v>
+      </c>
+      <c r="J273">
+        <v>12</v>
+      </c>
+      <c r="K273">
+        <v>12</v>
+      </c>
+      <c r="L273">
+        <v>57</v>
+      </c>
+      <c r="M273">
+        <v>47</v>
+      </c>
+      <c r="N273">
+        <v>42</v>
+      </c>
+      <c r="O273">
+        <v>1017</v>
+      </c>
+      <c r="P273">
+        <v>1016</v>
+      </c>
+      <c r="Q273">
+        <v>1015</v>
+      </c>
+      <c r="R273">
+        <v>10</v>
+      </c>
+      <c r="S273">
+        <v>10</v>
+      </c>
+      <c r="T273">
+        <v>10</v>
+      </c>
+      <c r="U273">
+        <v>52</v>
+      </c>
+      <c r="V273">
+        <v>43</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>2</v>
+      </c>
+      <c r="AA273">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>89</v>
       </c>
@@ -5019,8 +6172,68 @@
       <c r="E274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274">
+        <v>28</v>
+      </c>
+      <c r="G274">
+        <v>22</v>
+      </c>
+      <c r="H274">
+        <v>19</v>
+      </c>
+      <c r="I274">
+        <v>13</v>
+      </c>
+      <c r="J274">
+        <v>12</v>
+      </c>
+      <c r="K274">
+        <v>11</v>
+      </c>
+      <c r="L274">
+        <v>64</v>
+      </c>
+      <c r="M274">
+        <v>49</v>
+      </c>
+      <c r="N274">
+        <v>39</v>
+      </c>
+      <c r="O274">
+        <v>1019</v>
+      </c>
+      <c r="P274">
+        <v>1019</v>
+      </c>
+      <c r="Q274">
+        <v>1017</v>
+      </c>
+      <c r="R274">
+        <v>10</v>
+      </c>
+      <c r="S274">
+        <v>10</v>
+      </c>
+      <c r="T274">
+        <v>10</v>
+      </c>
+      <c r="U274">
+        <v>29</v>
+      </c>
+      <c r="V274">
+        <v>16</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>1</v>
+      </c>
+      <c r="AA274">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>89</v>
       </c>
@@ -5036,8 +6249,68 @@
       <c r="E275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275">
+        <v>32</v>
+      </c>
+      <c r="G275">
+        <v>23</v>
+      </c>
+      <c r="H275">
+        <v>16</v>
+      </c>
+      <c r="I275">
+        <v>12</v>
+      </c>
+      <c r="J275">
+        <v>9</v>
+      </c>
+      <c r="K275">
+        <v>5</v>
+      </c>
+      <c r="L275">
+        <v>72</v>
+      </c>
+      <c r="M275">
+        <v>35</v>
+      </c>
+      <c r="N275">
+        <v>18</v>
+      </c>
+      <c r="O275">
+        <v>1018</v>
+      </c>
+      <c r="P275">
+        <v>1015</v>
+      </c>
+      <c r="Q275">
+        <v>1013</v>
+      </c>
+      <c r="R275">
+        <v>10</v>
+      </c>
+      <c r="S275">
+        <v>10</v>
+      </c>
+      <c r="T275">
+        <v>10</v>
+      </c>
+      <c r="U275">
+        <v>34</v>
+      </c>
+      <c r="V275">
+        <v>8</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>3</v>
+      </c>
+      <c r="AA275">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>89</v>
       </c>
@@ -5053,8 +6326,68 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276">
+        <v>24</v>
+      </c>
+      <c r="H276">
+        <v>19</v>
+      </c>
+      <c r="I276">
+        <v>13</v>
+      </c>
+      <c r="J276">
+        <v>11</v>
+      </c>
+      <c r="K276">
+        <v>9</v>
+      </c>
+      <c r="L276">
+        <v>64</v>
+      </c>
+      <c r="M276">
+        <v>42</v>
+      </c>
+      <c r="N276">
+        <v>25</v>
+      </c>
+      <c r="O276">
+        <v>1015</v>
+      </c>
+      <c r="P276">
+        <v>1013</v>
+      </c>
+      <c r="Q276">
+        <v>1010</v>
+      </c>
+      <c r="R276">
+        <v>10</v>
+      </c>
+      <c r="S276">
+        <v>10</v>
+      </c>
+      <c r="T276">
+        <v>10</v>
+      </c>
+      <c r="U276">
+        <v>50</v>
+      </c>
+      <c r="V276">
+        <v>19</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>2</v>
+      </c>
+      <c r="AA276">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>89</v>
       </c>
@@ -5070,8 +6403,68 @@
       <c r="E277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277">
+        <v>30</v>
+      </c>
+      <c r="G277">
+        <v>23</v>
+      </c>
+      <c r="H277">
+        <v>17</v>
+      </c>
+      <c r="I277">
+        <v>12</v>
+      </c>
+      <c r="J277">
+        <v>7</v>
+      </c>
+      <c r="K277">
+        <v>4</v>
+      </c>
+      <c r="L277">
+        <v>72</v>
+      </c>
+      <c r="M277">
+        <v>33</v>
+      </c>
+      <c r="N277">
+        <v>19</v>
+      </c>
+      <c r="O277">
+        <v>1013</v>
+      </c>
+      <c r="P277">
+        <v>1011</v>
+      </c>
+      <c r="Q277">
+        <v>1008</v>
+      </c>
+      <c r="R277">
+        <v>10</v>
+      </c>
+      <c r="S277">
+        <v>10</v>
+      </c>
+      <c r="T277">
+        <v>10</v>
+      </c>
+      <c r="U277">
+        <v>35</v>
+      </c>
+      <c r="V277">
+        <v>19</v>
+      </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
+      <c r="Y277">
+        <v>2</v>
+      </c>
+      <c r="AA277">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>89</v>
       </c>
@@ -5087,8 +6480,68 @@
       <c r="E278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278">
+        <v>25</v>
+      </c>
+      <c r="G278">
+        <v>19</v>
+      </c>
+      <c r="H278">
+        <v>14</v>
+      </c>
+      <c r="I278">
+        <v>14</v>
+      </c>
+      <c r="J278">
+        <v>11</v>
+      </c>
+      <c r="K278">
+        <v>6</v>
+      </c>
+      <c r="L278">
+        <v>94</v>
+      </c>
+      <c r="M278">
+        <v>50</v>
+      </c>
+      <c r="N278">
+        <v>29</v>
+      </c>
+      <c r="O278">
+        <v>1015</v>
+      </c>
+      <c r="P278">
+        <v>1014</v>
+      </c>
+      <c r="Q278">
+        <v>1014</v>
+      </c>
+      <c r="R278">
+        <v>10</v>
+      </c>
+      <c r="S278">
+        <v>10</v>
+      </c>
+      <c r="T278">
+        <v>10</v>
+      </c>
+      <c r="U278">
+        <v>19</v>
+      </c>
+      <c r="V278">
+        <v>6</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>2</v>
+      </c>
+      <c r="AA278">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>89</v>
       </c>
@@ -5104,8 +6557,68 @@
       <c r="E279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279">
+        <v>27</v>
+      </c>
+      <c r="G279">
+        <v>21</v>
+      </c>
+      <c r="H279">
+        <v>16</v>
+      </c>
+      <c r="I279">
+        <v>13</v>
+      </c>
+      <c r="J279">
+        <v>11</v>
+      </c>
+      <c r="K279">
+        <v>9</v>
+      </c>
+      <c r="L279">
+        <v>82</v>
+      </c>
+      <c r="M279">
+        <v>47</v>
+      </c>
+      <c r="N279">
+        <v>32</v>
+      </c>
+      <c r="O279">
+        <v>1019</v>
+      </c>
+      <c r="P279">
+        <v>1017</v>
+      </c>
+      <c r="Q279">
+        <v>1016</v>
+      </c>
+      <c r="R279">
+        <v>10</v>
+      </c>
+      <c r="S279">
+        <v>10</v>
+      </c>
+      <c r="T279">
+        <v>10</v>
+      </c>
+      <c r="U279">
+        <v>26</v>
+      </c>
+      <c r="V279">
+        <v>11</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>1</v>
+      </c>
+      <c r="AA279">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>89</v>
       </c>
@@ -5121,8 +6634,68 @@
       <c r="E280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280">
+        <v>30</v>
+      </c>
+      <c r="G280">
+        <v>22</v>
+      </c>
+      <c r="H280">
+        <v>14</v>
+      </c>
+      <c r="I280">
+        <v>11</v>
+      </c>
+      <c r="J280">
+        <v>9</v>
+      </c>
+      <c r="K280">
+        <v>6</v>
+      </c>
+      <c r="L280">
+        <v>72</v>
+      </c>
+      <c r="M280">
+        <v>42</v>
+      </c>
+      <c r="N280">
+        <v>23</v>
+      </c>
+      <c r="O280">
+        <v>1019</v>
+      </c>
+      <c r="P280">
+        <v>1017</v>
+      </c>
+      <c r="Q280">
+        <v>1015</v>
+      </c>
+      <c r="R280">
+        <v>10</v>
+      </c>
+      <c r="S280">
+        <v>10</v>
+      </c>
+      <c r="T280">
+        <v>10</v>
+      </c>
+      <c r="U280">
+        <v>14</v>
+      </c>
+      <c r="V280">
+        <v>6</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>1</v>
+      </c>
+      <c r="AA280">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>89</v>
       </c>
@@ -5138,8 +6711,68 @@
       <c r="E281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281">
+        <v>31</v>
+      </c>
+      <c r="G281">
+        <v>24</v>
+      </c>
+      <c r="H281">
+        <v>19</v>
+      </c>
+      <c r="I281">
+        <v>9</v>
+      </c>
+      <c r="J281">
+        <v>6</v>
+      </c>
+      <c r="K281">
+        <v>4</v>
+      </c>
+      <c r="L281">
+        <v>52</v>
+      </c>
+      <c r="M281">
+        <v>27</v>
+      </c>
+      <c r="N281">
+        <v>18</v>
+      </c>
+      <c r="O281">
+        <v>1017</v>
+      </c>
+      <c r="P281">
+        <v>1015</v>
+      </c>
+      <c r="Q281">
+        <v>1014</v>
+      </c>
+      <c r="R281">
+        <v>10</v>
+      </c>
+      <c r="S281">
+        <v>10</v>
+      </c>
+      <c r="T281">
+        <v>10</v>
+      </c>
+      <c r="U281">
+        <v>19</v>
+      </c>
+      <c r="V281">
+        <v>8</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>1</v>
+      </c>
+      <c r="AA281">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>89</v>
       </c>
@@ -5155,8 +6788,56 @@
       <c r="E282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282">
+        <v>30</v>
+      </c>
+      <c r="G282">
+        <v>23</v>
+      </c>
+      <c r="H282">
+        <v>16</v>
+      </c>
+      <c r="I282">
+        <v>7</v>
+      </c>
+      <c r="J282">
+        <v>4</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>52</v>
+      </c>
+      <c r="M282">
+        <v>27</v>
+      </c>
+      <c r="N282">
+        <v>18</v>
+      </c>
+      <c r="O282">
+        <v>1017</v>
+      </c>
+      <c r="P282">
+        <v>1015</v>
+      </c>
+      <c r="Q282">
+        <v>1014</v>
+      </c>
+      <c r="U282">
+        <v>26</v>
+      </c>
+      <c r="V282">
+        <v>6</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>89</v>
       </c>
@@ -5172,8 +6853,68 @@
       <c r="E283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283">
+        <v>33</v>
+      </c>
+      <c r="G283">
+        <v>22</v>
+      </c>
+      <c r="H283">
+        <v>12</v>
+      </c>
+      <c r="I283">
+        <v>5</v>
+      </c>
+      <c r="J283">
+        <v>3</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>47</v>
+      </c>
+      <c r="M283">
+        <v>23</v>
+      </c>
+      <c r="N283">
+        <v>13</v>
+      </c>
+      <c r="O283">
+        <v>1018</v>
+      </c>
+      <c r="P283">
+        <v>1016</v>
+      </c>
+      <c r="Q283">
+        <v>1014</v>
+      </c>
+      <c r="R283">
+        <v>10</v>
+      </c>
+      <c r="S283">
+        <v>10</v>
+      </c>
+      <c r="T283">
+        <v>10</v>
+      </c>
+      <c r="U283">
+        <v>29</v>
+      </c>
+      <c r="V283">
+        <v>5</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>1</v>
+      </c>
+      <c r="AA283">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>89</v>
       </c>
@@ -5189,8 +6930,68 @@
       <c r="E284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284">
+        <v>34</v>
+      </c>
+      <c r="G284">
+        <v>27</v>
+      </c>
+      <c r="H284">
+        <v>21</v>
+      </c>
+      <c r="I284">
+        <v>5</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284">
+        <v>-2</v>
+      </c>
+      <c r="L284">
+        <v>33</v>
+      </c>
+      <c r="M284">
+        <v>18</v>
+      </c>
+      <c r="N284">
+        <v>10</v>
+      </c>
+      <c r="O284">
+        <v>1019</v>
+      </c>
+      <c r="P284">
+        <v>1018</v>
+      </c>
+      <c r="Q284">
+        <v>1017</v>
+      </c>
+      <c r="R284">
+        <v>10</v>
+      </c>
+      <c r="S284">
+        <v>10</v>
+      </c>
+      <c r="T284">
+        <v>10</v>
+      </c>
+      <c r="U284">
+        <v>26</v>
+      </c>
+      <c r="V284">
+        <v>13</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>3</v>
+      </c>
+      <c r="AA284">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>89</v>
       </c>
@@ -5206,8 +7007,68 @@
       <c r="E285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285">
+        <v>31</v>
+      </c>
+      <c r="G285">
+        <v>23</v>
+      </c>
+      <c r="H285">
+        <v>16</v>
+      </c>
+      <c r="I285">
+        <v>7</v>
+      </c>
+      <c r="J285">
+        <v>4</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>39</v>
+      </c>
+      <c r="M285">
+        <v>25</v>
+      </c>
+      <c r="N285">
+        <v>18</v>
+      </c>
+      <c r="O285">
+        <v>1022</v>
+      </c>
+      <c r="P285">
+        <v>1021</v>
+      </c>
+      <c r="Q285">
+        <v>1020</v>
+      </c>
+      <c r="R285">
+        <v>10</v>
+      </c>
+      <c r="S285">
+        <v>10</v>
+      </c>
+      <c r="T285">
+        <v>10</v>
+      </c>
+      <c r="U285">
+        <v>45</v>
+      </c>
+      <c r="V285">
+        <v>14</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>3</v>
+      </c>
+      <c r="AA285">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>89</v>
       </c>
@@ -5223,8 +7084,68 @@
       <c r="E286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286">
+        <v>31</v>
+      </c>
+      <c r="G286">
+        <v>26</v>
+      </c>
+      <c r="H286">
+        <v>20</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>-1</v>
+      </c>
+      <c r="K286">
+        <v>-3</v>
+      </c>
+      <c r="L286">
+        <v>23</v>
+      </c>
+      <c r="M286">
+        <v>16</v>
+      </c>
+      <c r="N286">
+        <v>12</v>
+      </c>
+      <c r="O286">
+        <v>1023</v>
+      </c>
+      <c r="P286">
+        <v>1021</v>
+      </c>
+      <c r="Q286">
+        <v>1018</v>
+      </c>
+      <c r="R286">
+        <v>10</v>
+      </c>
+      <c r="S286">
+        <v>10</v>
+      </c>
+      <c r="T286">
+        <v>10</v>
+      </c>
+      <c r="U286">
+        <v>34</v>
+      </c>
+      <c r="V286">
+        <v>18</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>1</v>
+      </c>
+      <c r="AA286">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>89</v>
       </c>
@@ -5240,8 +7161,56 @@
       <c r="E287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287">
+        <v>26</v>
+      </c>
+      <c r="H287">
+        <v>20</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>-3</v>
+      </c>
+      <c r="K287">
+        <v>-6</v>
+      </c>
+      <c r="L287">
+        <v>23</v>
+      </c>
+      <c r="M287">
+        <v>14</v>
+      </c>
+      <c r="N287">
+        <v>9</v>
+      </c>
+      <c r="O287">
+        <v>1020</v>
+      </c>
+      <c r="P287">
+        <v>1018</v>
+      </c>
+      <c r="Q287">
+        <v>1016</v>
+      </c>
+      <c r="U287">
+        <v>29</v>
+      </c>
+      <c r="V287">
+        <v>13</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>89</v>
       </c>
@@ -5257,8 +7226,68 @@
       <c r="E288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288">
+        <v>22</v>
+      </c>
+      <c r="H288">
+        <v>12</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>-1</v>
+      </c>
+      <c r="K288">
+        <v>-4</v>
+      </c>
+      <c r="L288">
+        <v>35</v>
+      </c>
+      <c r="M288">
+        <v>18</v>
+      </c>
+      <c r="N288">
+        <v>10</v>
+      </c>
+      <c r="O288">
+        <v>1019</v>
+      </c>
+      <c r="P288">
+        <v>1017</v>
+      </c>
+      <c r="Q288">
+        <v>1016</v>
+      </c>
+      <c r="R288">
+        <v>10</v>
+      </c>
+      <c r="S288">
+        <v>10</v>
+      </c>
+      <c r="T288">
+        <v>10</v>
+      </c>
+      <c r="U288">
+        <v>23</v>
+      </c>
+      <c r="V288">
+        <v>3</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>1</v>
+      </c>
+      <c r="AA288">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>89</v>
       </c>
@@ -5274,8 +7303,68 @@
       <c r="E289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289">
+        <v>24</v>
+      </c>
+      <c r="H289">
+        <v>18</v>
+      </c>
+      <c r="I289">
+        <v>-2</v>
+      </c>
+      <c r="J289">
+        <v>-3</v>
+      </c>
+      <c r="K289">
+        <v>-5</v>
+      </c>
+      <c r="L289">
+        <v>24</v>
+      </c>
+      <c r="M289">
+        <v>14</v>
+      </c>
+      <c r="N289">
+        <v>10</v>
+      </c>
+      <c r="O289">
+        <v>1019</v>
+      </c>
+      <c r="P289">
+        <v>1017</v>
+      </c>
+      <c r="Q289">
+        <v>1015</v>
+      </c>
+      <c r="R289">
+        <v>10</v>
+      </c>
+      <c r="S289">
+        <v>10</v>
+      </c>
+      <c r="T289">
+        <v>10</v>
+      </c>
+      <c r="U289">
+        <v>29</v>
+      </c>
+      <c r="V289">
+        <v>5</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>1</v>
+      </c>
+      <c r="AA289">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>89</v>
       </c>
@@ -5291,8 +7380,68 @@
       <c r="E290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290">
+        <v>26</v>
+      </c>
+      <c r="H290">
+        <v>19</v>
+      </c>
+      <c r="I290">
+        <v>-1</v>
+      </c>
+      <c r="J290">
+        <v>-2</v>
+      </c>
+      <c r="K290">
+        <v>-5</v>
+      </c>
+      <c r="L290">
+        <v>23</v>
+      </c>
+      <c r="M290">
+        <v>14</v>
+      </c>
+      <c r="N290">
+        <v>9</v>
+      </c>
+      <c r="O290">
+        <v>1018</v>
+      </c>
+      <c r="P290">
+        <v>1017</v>
+      </c>
+      <c r="Q290">
+        <v>1015</v>
+      </c>
+      <c r="R290">
+        <v>10</v>
+      </c>
+      <c r="S290">
+        <v>10</v>
+      </c>
+      <c r="T290">
+        <v>10</v>
+      </c>
+      <c r="U290">
+        <v>45</v>
+      </c>
+      <c r="V290">
+        <v>11</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>1</v>
+      </c>
+      <c r="AA290">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>89</v>
       </c>
@@ -5308,8 +7457,68 @@
       <c r="E291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291">
+        <v>31</v>
+      </c>
+      <c r="G291">
+        <v>26</v>
+      </c>
+      <c r="H291">
+        <v>21</v>
+      </c>
+      <c r="I291">
+        <v>8</v>
+      </c>
+      <c r="J291">
+        <v>4</v>
+      </c>
+      <c r="K291">
+        <v>-3</v>
+      </c>
+      <c r="L291">
+        <v>38</v>
+      </c>
+      <c r="M291">
+        <v>23</v>
+      </c>
+      <c r="N291">
+        <v>11</v>
+      </c>
+      <c r="O291">
+        <v>1020</v>
+      </c>
+      <c r="P291">
+        <v>1017</v>
+      </c>
+      <c r="Q291">
+        <v>1016</v>
+      </c>
+      <c r="R291">
+        <v>10</v>
+      </c>
+      <c r="S291">
+        <v>10</v>
+      </c>
+      <c r="T291">
+        <v>10</v>
+      </c>
+      <c r="U291">
+        <v>29</v>
+      </c>
+      <c r="V291">
+        <v>26</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>2</v>
+      </c>
+      <c r="AA291">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>89</v>
       </c>
@@ -5325,8 +7534,68 @@
       <c r="E292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292">
+        <v>27</v>
+      </c>
+      <c r="G292">
+        <v>22</v>
+      </c>
+      <c r="H292">
+        <v>17</v>
+      </c>
+      <c r="I292">
+        <v>10</v>
+      </c>
+      <c r="J292">
+        <v>8</v>
+      </c>
+      <c r="K292">
+        <v>6</v>
+      </c>
+      <c r="L292">
+        <v>59</v>
+      </c>
+      <c r="M292">
+        <v>37</v>
+      </c>
+      <c r="N292">
+        <v>26</v>
+      </c>
+      <c r="O292">
+        <v>1019</v>
+      </c>
+      <c r="P292">
+        <v>1016</v>
+      </c>
+      <c r="Q292">
+        <v>1014</v>
+      </c>
+      <c r="R292">
+        <v>10</v>
+      </c>
+      <c r="S292">
+        <v>10</v>
+      </c>
+      <c r="T292">
+        <v>10</v>
+      </c>
+      <c r="U292">
+        <v>55</v>
+      </c>
+      <c r="V292">
+        <v>23</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>1</v>
+      </c>
+      <c r="AA292">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>89</v>
       </c>
@@ -5342,8 +7611,68 @@
       <c r="E293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F293">
+        <v>25</v>
+      </c>
+      <c r="G293">
+        <v>20</v>
+      </c>
+      <c r="H293">
+        <v>16</v>
+      </c>
+      <c r="I293">
+        <v>11</v>
+      </c>
+      <c r="J293">
+        <v>9</v>
+      </c>
+      <c r="K293">
+        <v>8</v>
+      </c>
+      <c r="L293">
+        <v>68</v>
+      </c>
+      <c r="M293">
+        <v>47</v>
+      </c>
+      <c r="N293">
+        <v>36</v>
+      </c>
+      <c r="O293">
+        <v>1020</v>
+      </c>
+      <c r="P293">
+        <v>1019</v>
+      </c>
+      <c r="Q293">
+        <v>1018</v>
+      </c>
+      <c r="R293">
+        <v>10</v>
+      </c>
+      <c r="S293">
+        <v>10</v>
+      </c>
+      <c r="T293">
+        <v>10</v>
+      </c>
+      <c r="U293">
+        <v>55</v>
+      </c>
+      <c r="V293">
+        <v>37</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>1</v>
+      </c>
+      <c r="AA293">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>89</v>
       </c>
@@ -5359,8 +7688,68 @@
       <c r="E294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294">
+        <v>27</v>
+      </c>
+      <c r="G294">
+        <v>20</v>
+      </c>
+      <c r="H294">
+        <v>14</v>
+      </c>
+      <c r="I294">
+        <v>9</v>
+      </c>
+      <c r="J294">
+        <v>8</v>
+      </c>
+      <c r="K294">
+        <v>7</v>
+      </c>
+      <c r="L294">
+        <v>67</v>
+      </c>
+      <c r="M294">
+        <v>44</v>
+      </c>
+      <c r="N294">
+        <v>32</v>
+      </c>
+      <c r="O294">
+        <v>1023</v>
+      </c>
+      <c r="P294">
+        <v>1021</v>
+      </c>
+      <c r="Q294">
+        <v>1019</v>
+      </c>
+      <c r="R294">
+        <v>10</v>
+      </c>
+      <c r="S294">
+        <v>10</v>
+      </c>
+      <c r="T294">
+        <v>10</v>
+      </c>
+      <c r="U294">
+        <v>23</v>
+      </c>
+      <c r="V294">
+        <v>16</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>1</v>
+      </c>
+      <c r="AA294">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>89</v>
       </c>
@@ -5376,8 +7765,68 @@
       <c r="E295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295">
+        <v>31</v>
+      </c>
+      <c r="G295">
+        <v>24</v>
+      </c>
+      <c r="H295">
+        <v>18</v>
+      </c>
+      <c r="I295">
+        <v>8</v>
+      </c>
+      <c r="J295">
+        <v>4</v>
+      </c>
+      <c r="K295">
+        <v>-1</v>
+      </c>
+      <c r="L295">
+        <v>52</v>
+      </c>
+      <c r="M295">
+        <v>29</v>
+      </c>
+      <c r="N295">
+        <v>13</v>
+      </c>
+      <c r="O295">
+        <v>1020</v>
+      </c>
+      <c r="P295">
+        <v>1017</v>
+      </c>
+      <c r="Q295">
+        <v>1013</v>
+      </c>
+      <c r="R295">
+        <v>10</v>
+      </c>
+      <c r="S295">
+        <v>10</v>
+      </c>
+      <c r="T295">
+        <v>10</v>
+      </c>
+      <c r="U295">
+        <v>35</v>
+      </c>
+      <c r="V295">
+        <v>24</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>1</v>
+      </c>
+      <c r="AA295">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>89</v>
       </c>
@@ -5393,8 +7842,68 @@
       <c r="E296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296">
+        <v>31</v>
+      </c>
+      <c r="G296">
+        <v>26</v>
+      </c>
+      <c r="H296">
+        <v>20</v>
+      </c>
+      <c r="I296">
+        <v>3</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296">
+        <v>-2</v>
+      </c>
+      <c r="L296">
+        <v>33</v>
+      </c>
+      <c r="M296">
+        <v>18</v>
+      </c>
+      <c r="N296">
+        <v>12</v>
+      </c>
+      <c r="O296">
+        <v>1015</v>
+      </c>
+      <c r="P296">
+        <v>1013</v>
+      </c>
+      <c r="Q296">
+        <v>1011</v>
+      </c>
+      <c r="R296">
+        <v>10</v>
+      </c>
+      <c r="S296">
+        <v>10</v>
+      </c>
+      <c r="T296">
+        <v>10</v>
+      </c>
+      <c r="U296">
+        <v>48</v>
+      </c>
+      <c r="V296">
+        <v>19</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>2</v>
+      </c>
+      <c r="AA296">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>89</v>
       </c>
@@ -5410,8 +7919,68 @@
       <c r="E297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297">
+        <v>23</v>
+      </c>
+      <c r="G297">
+        <v>20</v>
+      </c>
+      <c r="H297">
+        <v>17</v>
+      </c>
+      <c r="I297">
+        <v>9</v>
+      </c>
+      <c r="J297">
+        <v>8</v>
+      </c>
+      <c r="K297">
+        <v>7</v>
+      </c>
+      <c r="L297">
+        <v>59</v>
+      </c>
+      <c r="M297">
+        <v>46</v>
+      </c>
+      <c r="N297">
+        <v>36</v>
+      </c>
+      <c r="O297">
+        <v>1018</v>
+      </c>
+      <c r="P297">
+        <v>1017</v>
+      </c>
+      <c r="Q297">
+        <v>1017</v>
+      </c>
+      <c r="R297">
+        <v>10</v>
+      </c>
+      <c r="S297">
+        <v>10</v>
+      </c>
+      <c r="T297">
+        <v>10</v>
+      </c>
+      <c r="U297">
+        <v>40</v>
+      </c>
+      <c r="V297">
+        <v>19</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>2</v>
+      </c>
+      <c r="AA297">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>89</v>
       </c>
@@ -5427,8 +7996,68 @@
       <c r="E298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298">
+        <v>26</v>
+      </c>
+      <c r="G298">
+        <v>17</v>
+      </c>
+      <c r="H298">
+        <v>9</v>
+      </c>
+      <c r="I298">
+        <v>7</v>
+      </c>
+      <c r="J298">
+        <v>6</v>
+      </c>
+      <c r="K298">
+        <v>3</v>
+      </c>
+      <c r="L298">
+        <v>76</v>
+      </c>
+      <c r="M298">
+        <v>44</v>
+      </c>
+      <c r="N298">
+        <v>24</v>
+      </c>
+      <c r="O298">
+        <v>1022</v>
+      </c>
+      <c r="P298">
+        <v>1020</v>
+      </c>
+      <c r="Q298">
+        <v>1018</v>
+      </c>
+      <c r="R298">
+        <v>10</v>
+      </c>
+      <c r="S298">
+        <v>10</v>
+      </c>
+      <c r="T298">
+        <v>10</v>
+      </c>
+      <c r="U298">
+        <v>29</v>
+      </c>
+      <c r="V298">
+        <v>11</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>1</v>
+      </c>
+      <c r="AA298">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>89</v>
       </c>
@@ -5444,8 +8073,56 @@
       <c r="E299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299">
+        <v>28</v>
+      </c>
+      <c r="G299">
+        <v>18</v>
+      </c>
+      <c r="H299">
+        <v>8</v>
+      </c>
+      <c r="I299">
+        <v>6</v>
+      </c>
+      <c r="J299">
+        <v>2</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+      <c r="L299">
+        <v>62</v>
+      </c>
+      <c r="M299">
+        <v>29</v>
+      </c>
+      <c r="N299">
+        <v>17</v>
+      </c>
+      <c r="O299">
+        <v>1022</v>
+      </c>
+      <c r="P299">
+        <v>1019</v>
+      </c>
+      <c r="Q299">
+        <v>1018</v>
+      </c>
+      <c r="U299">
+        <v>19</v>
+      </c>
+      <c r="V299">
+        <v>10</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="AA299">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>89</v>
       </c>
@@ -5461,8 +8138,68 @@
       <c r="E300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300">
+        <v>27</v>
+      </c>
+      <c r="G300">
+        <v>20</v>
+      </c>
+      <c r="H300">
+        <v>14</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>-1</v>
+      </c>
+      <c r="L300">
+        <v>44</v>
+      </c>
+      <c r="M300">
+        <v>25</v>
+      </c>
+      <c r="N300">
+        <v>16</v>
+      </c>
+      <c r="O300">
+        <v>1019</v>
+      </c>
+      <c r="P300">
+        <v>1017</v>
+      </c>
+      <c r="Q300">
+        <v>1015</v>
+      </c>
+      <c r="R300">
+        <v>10</v>
+      </c>
+      <c r="S300">
+        <v>10</v>
+      </c>
+      <c r="T300">
+        <v>10</v>
+      </c>
+      <c r="U300">
+        <v>37</v>
+      </c>
+      <c r="V300">
+        <v>27</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>2</v>
+      </c>
+      <c r="AA300">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>89</v>
       </c>
@@ -5478,8 +8215,71 @@
       <c r="E301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301">
+        <v>24</v>
+      </c>
+      <c r="G301">
+        <v>19</v>
+      </c>
+      <c r="H301">
+        <v>14</v>
+      </c>
+      <c r="I301">
+        <v>5</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>-2</v>
+      </c>
+      <c r="L301">
+        <v>48</v>
+      </c>
+      <c r="M301">
+        <v>30</v>
+      </c>
+      <c r="N301">
+        <v>18</v>
+      </c>
+      <c r="O301">
+        <v>1020</v>
+      </c>
+      <c r="P301">
+        <v>1018</v>
+      </c>
+      <c r="Q301">
+        <v>1017</v>
+      </c>
+      <c r="R301">
+        <v>10</v>
+      </c>
+      <c r="S301">
+        <v>10</v>
+      </c>
+      <c r="T301">
+        <v>8</v>
+      </c>
+      <c r="U301">
+        <v>19</v>
+      </c>
+      <c r="V301">
+        <v>10</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>5</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA301">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>89</v>
       </c>
@@ -5495,8 +8295,68 @@
       <c r="E302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302">
+        <v>26</v>
+      </c>
+      <c r="G302">
+        <v>19</v>
+      </c>
+      <c r="H302">
+        <v>13</v>
+      </c>
+      <c r="I302">
+        <v>6</v>
+      </c>
+      <c r="J302">
+        <v>3</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>58</v>
+      </c>
+      <c r="M302">
+        <v>31</v>
+      </c>
+      <c r="N302">
+        <v>20</v>
+      </c>
+      <c r="O302">
+        <v>1022</v>
+      </c>
+      <c r="P302">
+        <v>1020</v>
+      </c>
+      <c r="Q302">
+        <v>1019</v>
+      </c>
+      <c r="R302">
+        <v>10</v>
+      </c>
+      <c r="S302">
+        <v>10</v>
+      </c>
+      <c r="T302">
+        <v>10</v>
+      </c>
+      <c r="U302">
+        <v>14</v>
+      </c>
+      <c r="V302">
+        <v>8</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>1</v>
+      </c>
+      <c r="AA302">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>89</v>
       </c>
@@ -5512,8 +8372,68 @@
       <c r="E303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F303">
+        <v>28</v>
+      </c>
+      <c r="G303">
+        <v>20</v>
+      </c>
+      <c r="H303">
+        <v>13</v>
+      </c>
+      <c r="I303">
+        <v>4</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>-3</v>
+      </c>
+      <c r="L303">
+        <v>54</v>
+      </c>
+      <c r="M303">
+        <v>25</v>
+      </c>
+      <c r="N303">
+        <v>13</v>
+      </c>
+      <c r="O303">
+        <v>1023</v>
+      </c>
+      <c r="P303">
+        <v>1021</v>
+      </c>
+      <c r="Q303">
+        <v>1020</v>
+      </c>
+      <c r="R303">
+        <v>10</v>
+      </c>
+      <c r="S303">
+        <v>10</v>
+      </c>
+      <c r="T303">
+        <v>10</v>
+      </c>
+      <c r="U303">
+        <v>14</v>
+      </c>
+      <c r="V303">
+        <v>6</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>2</v>
+      </c>
+      <c r="AA303">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>89</v>
       </c>
@@ -5529,8 +8449,68 @@
       <c r="E304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304">
+        <v>29</v>
+      </c>
+      <c r="G304">
+        <v>22</v>
+      </c>
+      <c r="H304">
+        <v>15</v>
+      </c>
+      <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>-1</v>
+      </c>
+      <c r="L304">
+        <v>42</v>
+      </c>
+      <c r="M304">
+        <v>24</v>
+      </c>
+      <c r="N304">
+        <v>15</v>
+      </c>
+      <c r="O304">
+        <v>1024</v>
+      </c>
+      <c r="P304">
+        <v>1023</v>
+      </c>
+      <c r="Q304">
+        <v>1022</v>
+      </c>
+      <c r="R304">
+        <v>10</v>
+      </c>
+      <c r="S304">
+        <v>10</v>
+      </c>
+      <c r="T304">
+        <v>10</v>
+      </c>
+      <c r="U304">
+        <v>14</v>
+      </c>
+      <c r="V304">
+        <v>6</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <v>2</v>
+      </c>
+      <c r="AA304">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>89</v>
       </c>
@@ -5546,8 +8526,68 @@
       <c r="E305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305">
+        <v>31</v>
+      </c>
+      <c r="G305">
+        <v>23</v>
+      </c>
+      <c r="H305">
+        <v>16</v>
+      </c>
+      <c r="I305">
+        <v>2</v>
+      </c>
+      <c r="J305">
+        <v>-1</v>
+      </c>
+      <c r="K305">
+        <v>-3</v>
+      </c>
+      <c r="L305">
+        <v>39</v>
+      </c>
+      <c r="M305">
+        <v>19</v>
+      </c>
+      <c r="N305">
+        <v>11</v>
+      </c>
+      <c r="O305">
+        <v>1023</v>
+      </c>
+      <c r="P305">
+        <v>1021</v>
+      </c>
+      <c r="Q305">
+        <v>1019</v>
+      </c>
+      <c r="R305">
+        <v>10</v>
+      </c>
+      <c r="S305">
+        <v>10</v>
+      </c>
+      <c r="T305">
+        <v>10</v>
+      </c>
+      <c r="U305">
+        <v>23</v>
+      </c>
+      <c r="V305">
+        <v>13</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>2</v>
+      </c>
+      <c r="AA305">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>89</v>
       </c>
@@ -5563,8 +8603,68 @@
       <c r="E306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306">
+        <v>27</v>
+      </c>
+      <c r="G306">
+        <v>20</v>
+      </c>
+      <c r="H306">
+        <v>13</v>
+      </c>
+      <c r="I306">
+        <v>10</v>
+      </c>
+      <c r="J306">
+        <v>6</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>49</v>
+      </c>
+      <c r="M306">
+        <v>36</v>
+      </c>
+      <c r="N306">
+        <v>18</v>
+      </c>
+      <c r="O306">
+        <v>1023</v>
+      </c>
+      <c r="P306">
+        <v>1022</v>
+      </c>
+      <c r="Q306">
+        <v>1021</v>
+      </c>
+      <c r="R306">
+        <v>10</v>
+      </c>
+      <c r="S306">
+        <v>10</v>
+      </c>
+      <c r="T306">
+        <v>10</v>
+      </c>
+      <c r="U306">
+        <v>26</v>
+      </c>
+      <c r="V306">
+        <v>6</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>2</v>
+      </c>
+      <c r="AA306">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>89</v>
       </c>
@@ -5580,8 +8680,68 @@
       <c r="E307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307">
+        <v>28</v>
+      </c>
+      <c r="G307">
+        <v>18</v>
+      </c>
+      <c r="H307">
+        <v>9</v>
+      </c>
+      <c r="I307">
+        <v>11</v>
+      </c>
+      <c r="J307">
+        <v>6</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307">
+        <v>71</v>
+      </c>
+      <c r="M307">
+        <v>41</v>
+      </c>
+      <c r="N307">
+        <v>19</v>
+      </c>
+      <c r="O307">
+        <v>1024</v>
+      </c>
+      <c r="P307">
+        <v>1023</v>
+      </c>
+      <c r="Q307">
+        <v>1020</v>
+      </c>
+      <c r="R307">
+        <v>10</v>
+      </c>
+      <c r="S307">
+        <v>10</v>
+      </c>
+      <c r="T307">
+        <v>10</v>
+      </c>
+      <c r="U307">
+        <v>14</v>
+      </c>
+      <c r="V307">
+        <v>3</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>1</v>
+      </c>
+      <c r="AA307">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>89</v>
       </c>
@@ -5597,8 +8757,68 @@
       <c r="E308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308">
+        <v>28</v>
+      </c>
+      <c r="G308">
+        <v>22</v>
+      </c>
+      <c r="H308">
+        <v>17</v>
+      </c>
+      <c r="I308">
+        <v>6</v>
+      </c>
+      <c r="J308">
+        <v>4</v>
+      </c>
+      <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>39</v>
+      </c>
+      <c r="M308">
+        <v>26</v>
+      </c>
+      <c r="N308">
+        <v>20</v>
+      </c>
+      <c r="O308">
+        <v>1021</v>
+      </c>
+      <c r="P308">
+        <v>1020</v>
+      </c>
+      <c r="Q308">
+        <v>1019</v>
+      </c>
+      <c r="R308">
+        <v>10</v>
+      </c>
+      <c r="S308">
+        <v>10</v>
+      </c>
+      <c r="T308">
+        <v>10</v>
+      </c>
+      <c r="U308">
+        <v>26</v>
+      </c>
+      <c r="V308">
+        <v>16</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <v>3</v>
+      </c>
+      <c r="AA308">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>89</v>
       </c>
@@ -5614,8 +8834,68 @@
       <c r="E309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309">
+        <v>27</v>
+      </c>
+      <c r="G309">
+        <v>18</v>
+      </c>
+      <c r="H309">
+        <v>10</v>
+      </c>
+      <c r="I309">
+        <v>11</v>
+      </c>
+      <c r="J309">
+        <v>8</v>
+      </c>
+      <c r="K309">
+        <v>6</v>
+      </c>
+      <c r="L309">
+        <v>77</v>
+      </c>
+      <c r="M309">
+        <v>47</v>
+      </c>
+      <c r="N309">
+        <v>30</v>
+      </c>
+      <c r="O309">
+        <v>1023</v>
+      </c>
+      <c r="P309">
+        <v>1022</v>
+      </c>
+      <c r="Q309">
+        <v>1020</v>
+      </c>
+      <c r="R309">
+        <v>10</v>
+      </c>
+      <c r="S309">
+        <v>10</v>
+      </c>
+      <c r="T309">
+        <v>10</v>
+      </c>
+      <c r="U309">
+        <v>26</v>
+      </c>
+      <c r="V309">
+        <v>5</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+      <c r="Y309">
+        <v>2</v>
+      </c>
+      <c r="AA309">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>89</v>
       </c>
@@ -5631,8 +8911,68 @@
       <c r="E310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310">
+        <v>27</v>
+      </c>
+      <c r="G310">
+        <v>18</v>
+      </c>
+      <c r="H310">
+        <v>10</v>
+      </c>
+      <c r="I310">
+        <v>9</v>
+      </c>
+      <c r="J310">
+        <v>7</v>
+      </c>
+      <c r="K310">
+        <v>4</v>
+      </c>
+      <c r="L310">
+        <v>76</v>
+      </c>
+      <c r="M310">
+        <v>41</v>
+      </c>
+      <c r="N310">
+        <v>24</v>
+      </c>
+      <c r="O310">
+        <v>1021</v>
+      </c>
+      <c r="P310">
+        <v>1020</v>
+      </c>
+      <c r="Q310">
+        <v>1018</v>
+      </c>
+      <c r="R310">
+        <v>10</v>
+      </c>
+      <c r="S310">
+        <v>10</v>
+      </c>
+      <c r="T310">
+        <v>10</v>
+      </c>
+      <c r="U310">
+        <v>23</v>
+      </c>
+      <c r="V310">
+        <v>6</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+      <c r="Y310">
+        <v>2</v>
+      </c>
+      <c r="AA310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>89</v>
       </c>
@@ -5648,8 +8988,68 @@
       <c r="E311">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311">
+        <v>27</v>
+      </c>
+      <c r="G311">
+        <v>19</v>
+      </c>
+      <c r="H311">
+        <v>11</v>
+      </c>
+      <c r="I311">
+        <v>7</v>
+      </c>
+      <c r="J311">
+        <v>3</v>
+      </c>
+      <c r="K311">
+        <v>1</v>
+      </c>
+      <c r="L311">
+        <v>54</v>
+      </c>
+      <c r="M311">
+        <v>29</v>
+      </c>
+      <c r="N311">
+        <v>18</v>
+      </c>
+      <c r="O311">
+        <v>1019</v>
+      </c>
+      <c r="P311">
+        <v>1018</v>
+      </c>
+      <c r="Q311">
+        <v>1016</v>
+      </c>
+      <c r="R311">
+        <v>10</v>
+      </c>
+      <c r="S311">
+        <v>10</v>
+      </c>
+      <c r="T311">
+        <v>10</v>
+      </c>
+      <c r="U311">
+        <v>19</v>
+      </c>
+      <c r="V311">
+        <v>8</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <v>3</v>
+      </c>
+      <c r="AA311">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>89</v>
       </c>
@@ -5665,8 +9065,68 @@
       <c r="E312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312">
+        <v>29</v>
+      </c>
+      <c r="G312">
+        <v>22</v>
+      </c>
+      <c r="H312">
+        <v>15</v>
+      </c>
+      <c r="I312">
+        <v>4</v>
+      </c>
+      <c r="J312">
+        <v>2</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>48</v>
+      </c>
+      <c r="M312">
+        <v>23</v>
+      </c>
+      <c r="N312">
+        <v>15</v>
+      </c>
+      <c r="O312">
+        <v>1019</v>
+      </c>
+      <c r="P312">
+        <v>1017</v>
+      </c>
+      <c r="Q312">
+        <v>1015</v>
+      </c>
+      <c r="R312">
+        <v>10</v>
+      </c>
+      <c r="S312">
+        <v>10</v>
+      </c>
+      <c r="T312">
+        <v>10</v>
+      </c>
+      <c r="U312">
+        <v>26</v>
+      </c>
+      <c r="V312">
+        <v>14</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>1</v>
+      </c>
+      <c r="AA312">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>89</v>
       </c>
@@ -5682,8 +9142,68 @@
       <c r="E313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313">
+        <v>29</v>
+      </c>
+      <c r="G313">
+        <v>21</v>
+      </c>
+      <c r="H313">
+        <v>14</v>
+      </c>
+      <c r="I313">
+        <v>5</v>
+      </c>
+      <c r="J313">
+        <v>3</v>
+      </c>
+      <c r="K313">
+        <v>-1</v>
+      </c>
+      <c r="L313">
+        <v>55</v>
+      </c>
+      <c r="M313">
+        <v>26</v>
+      </c>
+      <c r="N313">
+        <v>14</v>
+      </c>
+      <c r="O313">
+        <v>1020</v>
+      </c>
+      <c r="P313">
+        <v>1018</v>
+      </c>
+      <c r="Q313">
+        <v>1016</v>
+      </c>
+      <c r="R313">
+        <v>9</v>
+      </c>
+      <c r="S313">
+        <v>9</v>
+      </c>
+      <c r="T313">
+        <v>8</v>
+      </c>
+      <c r="U313">
+        <v>23</v>
+      </c>
+      <c r="V313">
+        <v>14</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>89</v>
       </c>
@@ -5699,8 +9219,68 @@
       <c r="E314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314">
+        <v>28</v>
+      </c>
+      <c r="G314">
+        <v>21</v>
+      </c>
+      <c r="H314">
+        <v>14</v>
+      </c>
+      <c r="I314">
+        <v>5</v>
+      </c>
+      <c r="J314">
+        <v>2</v>
+      </c>
+      <c r="K314">
+        <v>-2</v>
+      </c>
+      <c r="L314">
+        <v>51</v>
+      </c>
+      <c r="M314">
+        <v>26</v>
+      </c>
+      <c r="N314">
+        <v>16</v>
+      </c>
+      <c r="O314">
+        <v>1021</v>
+      </c>
+      <c r="P314">
+        <v>1020</v>
+      </c>
+      <c r="Q314">
+        <v>1019</v>
+      </c>
+      <c r="R314">
+        <v>10</v>
+      </c>
+      <c r="S314">
+        <v>10</v>
+      </c>
+      <c r="T314">
+        <v>10</v>
+      </c>
+      <c r="U314">
+        <v>19</v>
+      </c>
+      <c r="V314">
+        <v>13</v>
+      </c>
+      <c r="X314">
+        <v>0</v>
+      </c>
+      <c r="Y314">
+        <v>2</v>
+      </c>
+      <c r="AA314">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>89</v>
       </c>
@@ -5716,8 +9296,68 @@
       <c r="E315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315">
+        <v>26</v>
+      </c>
+      <c r="G315">
+        <v>20</v>
+      </c>
+      <c r="H315">
+        <v>15</v>
+      </c>
+      <c r="I315">
+        <v>4</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>-1</v>
+      </c>
+      <c r="L315">
+        <v>45</v>
+      </c>
+      <c r="M315">
+        <v>26</v>
+      </c>
+      <c r="N315">
+        <v>17</v>
+      </c>
+      <c r="O315">
+        <v>1022</v>
+      </c>
+      <c r="P315">
+        <v>1021</v>
+      </c>
+      <c r="Q315">
+        <v>1019</v>
+      </c>
+      <c r="R315">
+        <v>10</v>
+      </c>
+      <c r="S315">
+        <v>10</v>
+      </c>
+      <c r="T315">
+        <v>10</v>
+      </c>
+      <c r="U315">
+        <v>29</v>
+      </c>
+      <c r="V315">
+        <v>18</v>
+      </c>
+      <c r="X315">
+        <v>0</v>
+      </c>
+      <c r="Y315">
+        <v>2</v>
+      </c>
+      <c r="AA315">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>89</v>
       </c>
@@ -5733,8 +9373,68 @@
       <c r="E316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316">
+        <v>28</v>
+      </c>
+      <c r="G316">
+        <v>21</v>
+      </c>
+      <c r="H316">
+        <v>15</v>
+      </c>
+      <c r="I316">
+        <v>5</v>
+      </c>
+      <c r="J316">
+        <v>3</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>48</v>
+      </c>
+      <c r="M316">
+        <v>28</v>
+      </c>
+      <c r="N316">
+        <v>18</v>
+      </c>
+      <c r="O316">
+        <v>1023</v>
+      </c>
+      <c r="P316">
+        <v>1022</v>
+      </c>
+      <c r="Q316">
+        <v>1020</v>
+      </c>
+      <c r="R316">
+        <v>10</v>
+      </c>
+      <c r="S316">
+        <v>10</v>
+      </c>
+      <c r="T316">
+        <v>10</v>
+      </c>
+      <c r="U316">
+        <v>23</v>
+      </c>
+      <c r="V316">
+        <v>10</v>
+      </c>
+      <c r="X316">
+        <v>0</v>
+      </c>
+      <c r="Y316">
+        <v>2</v>
+      </c>
+      <c r="AA316">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>89</v>
       </c>
@@ -5750,8 +9450,68 @@
       <c r="E317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317">
+        <v>26</v>
+      </c>
+      <c r="G317">
+        <v>20</v>
+      </c>
+      <c r="H317">
+        <v>15</v>
+      </c>
+      <c r="I317">
+        <v>5</v>
+      </c>
+      <c r="J317">
+        <v>4</v>
+      </c>
+      <c r="K317">
+        <v>2</v>
+      </c>
+      <c r="L317">
+        <v>51</v>
+      </c>
+      <c r="M317">
+        <v>31</v>
+      </c>
+      <c r="N317">
+        <v>24</v>
+      </c>
+      <c r="O317">
+        <v>1021</v>
+      </c>
+      <c r="P317">
+        <v>1019</v>
+      </c>
+      <c r="Q317">
+        <v>1016</v>
+      </c>
+      <c r="R317">
+        <v>10</v>
+      </c>
+      <c r="S317">
+        <v>8</v>
+      </c>
+      <c r="T317">
+        <v>6</v>
+      </c>
+      <c r="U317">
+        <v>26</v>
+      </c>
+      <c r="V317">
+        <v>13</v>
+      </c>
+      <c r="X317">
+        <v>0</v>
+      </c>
+      <c r="Y317">
+        <v>4</v>
+      </c>
+      <c r="AA317">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>89</v>
       </c>
@@ -5767,8 +9527,68 @@
       <c r="E318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318">
+        <v>25</v>
+      </c>
+      <c r="G318">
+        <v>18</v>
+      </c>
+      <c r="H318">
+        <v>12</v>
+      </c>
+      <c r="I318">
+        <v>2</v>
+      </c>
+      <c r="J318">
+        <v>-2</v>
+      </c>
+      <c r="K318">
+        <v>-4</v>
+      </c>
+      <c r="L318">
+        <v>51</v>
+      </c>
+      <c r="M318">
+        <v>24</v>
+      </c>
+      <c r="N318">
+        <v>17</v>
+      </c>
+      <c r="O318">
+        <v>1018</v>
+      </c>
+      <c r="P318">
+        <v>1016</v>
+      </c>
+      <c r="Q318">
+        <v>1014</v>
+      </c>
+      <c r="R318">
+        <v>10</v>
+      </c>
+      <c r="S318">
+        <v>10</v>
+      </c>
+      <c r="T318">
+        <v>10</v>
+      </c>
+      <c r="U318">
+        <v>35</v>
+      </c>
+      <c r="V318">
+        <v>16</v>
+      </c>
+      <c r="X318">
+        <v>0</v>
+      </c>
+      <c r="Y318">
+        <v>3</v>
+      </c>
+      <c r="AA318">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>89</v>
       </c>
@@ -5784,8 +9604,56 @@
       <c r="E319">
         <v>5</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319">
+        <v>25</v>
+      </c>
+      <c r="G319">
+        <v>18</v>
+      </c>
+      <c r="H319">
+        <v>11</v>
+      </c>
+      <c r="I319">
+        <v>7</v>
+      </c>
+      <c r="J319">
+        <v>3</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>58</v>
+      </c>
+      <c r="M319">
+        <v>37</v>
+      </c>
+      <c r="N319">
+        <v>19</v>
+      </c>
+      <c r="O319">
+        <v>1020</v>
+      </c>
+      <c r="P319">
+        <v>1019</v>
+      </c>
+      <c r="Q319">
+        <v>1018</v>
+      </c>
+      <c r="U319">
+        <v>40</v>
+      </c>
+      <c r="V319">
+        <v>16</v>
+      </c>
+      <c r="X319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>89</v>
       </c>
@@ -5801,8 +9669,68 @@
       <c r="E320">
         <v>6</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320">
+        <v>25</v>
+      </c>
+      <c r="G320">
+        <v>17</v>
+      </c>
+      <c r="H320">
+        <v>9</v>
+      </c>
+      <c r="I320">
+        <v>5</v>
+      </c>
+      <c r="J320">
+        <v>2</v>
+      </c>
+      <c r="K320">
+        <v>-3</v>
+      </c>
+      <c r="L320">
+        <v>76</v>
+      </c>
+      <c r="M320">
+        <v>33</v>
+      </c>
+      <c r="N320">
+        <v>17</v>
+      </c>
+      <c r="O320">
+        <v>1022</v>
+      </c>
+      <c r="P320">
+        <v>1021</v>
+      </c>
+      <c r="Q320">
+        <v>1020</v>
+      </c>
+      <c r="R320">
+        <v>10</v>
+      </c>
+      <c r="S320">
+        <v>10</v>
+      </c>
+      <c r="T320">
+        <v>10</v>
+      </c>
+      <c r="U320">
+        <v>23</v>
+      </c>
+      <c r="V320">
+        <v>13</v>
+      </c>
+      <c r="X320">
+        <v>0</v>
+      </c>
+      <c r="Y320">
+        <v>2</v>
+      </c>
+      <c r="AA320">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>89</v>
       </c>
@@ -5818,8 +9746,68 @@
       <c r="E321">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F321">
+        <v>27</v>
+      </c>
+      <c r="G321">
+        <v>21</v>
+      </c>
+      <c r="H321">
+        <v>16</v>
+      </c>
+      <c r="I321">
+        <v>5</v>
+      </c>
+      <c r="J321">
+        <v>3</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>48</v>
+      </c>
+      <c r="M321">
+        <v>28</v>
+      </c>
+      <c r="N321">
+        <v>17</v>
+      </c>
+      <c r="O321">
+        <v>1019</v>
+      </c>
+      <c r="P321">
+        <v>1017</v>
+      </c>
+      <c r="Q321">
+        <v>1016</v>
+      </c>
+      <c r="R321">
+        <v>10</v>
+      </c>
+      <c r="S321">
+        <v>10</v>
+      </c>
+      <c r="T321">
+        <v>10</v>
+      </c>
+      <c r="U321">
+        <v>34</v>
+      </c>
+      <c r="V321">
+        <v>26</v>
+      </c>
+      <c r="X321">
+        <v>0</v>
+      </c>
+      <c r="Y321">
+        <v>3</v>
+      </c>
+      <c r="AA321">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>89</v>
       </c>
@@ -5835,8 +9823,68 @@
       <c r="E322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322">
+        <v>25</v>
+      </c>
+      <c r="G322">
+        <v>20</v>
+      </c>
+      <c r="H322">
+        <v>15</v>
+      </c>
+      <c r="I322">
+        <v>2</v>
+      </c>
+      <c r="J322">
+        <v>-1</v>
+      </c>
+      <c r="K322">
+        <v>-4</v>
+      </c>
+      <c r="L322">
+        <v>42</v>
+      </c>
+      <c r="M322">
+        <v>24</v>
+      </c>
+      <c r="N322">
+        <v>14</v>
+      </c>
+      <c r="O322">
+        <v>1017</v>
+      </c>
+      <c r="P322">
+        <v>1015</v>
+      </c>
+      <c r="Q322">
+        <v>1014</v>
+      </c>
+      <c r="R322">
+        <v>10</v>
+      </c>
+      <c r="S322">
+        <v>10</v>
+      </c>
+      <c r="T322">
+        <v>10</v>
+      </c>
+      <c r="U322">
+        <v>34</v>
+      </c>
+      <c r="V322">
+        <v>18</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>2</v>
+      </c>
+      <c r="AA322">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>89</v>
       </c>
@@ -5852,8 +9900,68 @@
       <c r="E323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F323">
+        <v>23</v>
+      </c>
+      <c r="G323">
+        <v>16</v>
+      </c>
+      <c r="H323">
+        <v>8</v>
+      </c>
+      <c r="I323">
+        <v>5</v>
+      </c>
+      <c r="J323">
+        <v>1</v>
+      </c>
+      <c r="K323">
+        <v>-2</v>
+      </c>
+      <c r="L323">
+        <v>57</v>
+      </c>
+      <c r="M323">
+        <v>34</v>
+      </c>
+      <c r="N323">
+        <v>19</v>
+      </c>
+      <c r="O323">
+        <v>1016</v>
+      </c>
+      <c r="P323">
+        <v>1014</v>
+      </c>
+      <c r="Q323">
+        <v>1012</v>
+      </c>
+      <c r="R323">
+        <v>10</v>
+      </c>
+      <c r="S323">
+        <v>10</v>
+      </c>
+      <c r="T323">
+        <v>10</v>
+      </c>
+      <c r="U323">
+        <v>26</v>
+      </c>
+      <c r="V323">
+        <v>14</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>5</v>
+      </c>
+      <c r="AA323">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>89</v>
       </c>
@@ -5869,8 +9977,68 @@
       <c r="E324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324">
+        <v>17</v>
+      </c>
+      <c r="G324">
+        <v>12</v>
+      </c>
+      <c r="H324">
+        <v>8</v>
+      </c>
+      <c r="I324">
+        <v>6</v>
+      </c>
+      <c r="J324">
+        <v>3</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>87</v>
+      </c>
+      <c r="M324">
+        <v>50</v>
+      </c>
+      <c r="N324">
+        <v>32</v>
+      </c>
+      <c r="O324">
+        <v>1018</v>
+      </c>
+      <c r="P324">
+        <v>1017</v>
+      </c>
+      <c r="Q324">
+        <v>1016</v>
+      </c>
+      <c r="R324">
+        <v>10</v>
+      </c>
+      <c r="S324">
+        <v>10</v>
+      </c>
+      <c r="T324">
+        <v>10</v>
+      </c>
+      <c r="U324">
+        <v>14</v>
+      </c>
+      <c r="V324">
+        <v>10</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>2</v>
+      </c>
+      <c r="AA324">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>89</v>
       </c>
@@ -5886,8 +10054,56 @@
       <c r="E325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F325">
+        <v>21</v>
+      </c>
+      <c r="G325">
+        <v>12</v>
+      </c>
+      <c r="H325">
+        <v>3</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>-1</v>
+      </c>
+      <c r="K325">
+        <v>-3</v>
+      </c>
+      <c r="L325">
+        <v>75</v>
+      </c>
+      <c r="M325">
+        <v>39</v>
+      </c>
+      <c r="N325">
+        <v>21</v>
+      </c>
+      <c r="O325">
+        <v>1018</v>
+      </c>
+      <c r="P325">
+        <v>1016</v>
+      </c>
+      <c r="Q325">
+        <v>1014</v>
+      </c>
+      <c r="U325">
+        <v>74</v>
+      </c>
+      <c r="V325">
+        <v>13</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>89</v>
       </c>
@@ -5903,8 +10119,68 @@
       <c r="E326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326">
+        <v>22</v>
+      </c>
+      <c r="G326">
+        <v>14</v>
+      </c>
+      <c r="H326">
+        <v>7</v>
+      </c>
+      <c r="I326">
+        <v>3</v>
+      </c>
+      <c r="J326">
+        <v>2</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>76</v>
+      </c>
+      <c r="M326">
+        <v>37</v>
+      </c>
+      <c r="N326">
+        <v>23</v>
+      </c>
+      <c r="O326">
+        <v>1018</v>
+      </c>
+      <c r="P326">
+        <v>1017</v>
+      </c>
+      <c r="Q326">
+        <v>1015</v>
+      </c>
+      <c r="R326">
+        <v>10</v>
+      </c>
+      <c r="S326">
+        <v>10</v>
+      </c>
+      <c r="T326">
+        <v>10</v>
+      </c>
+      <c r="U326">
+        <v>14</v>
+      </c>
+      <c r="V326">
+        <v>11</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>1</v>
+      </c>
+      <c r="AA326">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>89</v>
       </c>
@@ -5920,8 +10196,68 @@
       <c r="E327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F327">
+        <v>26</v>
+      </c>
+      <c r="G327">
+        <v>18</v>
+      </c>
+      <c r="H327">
+        <v>11</v>
+      </c>
+      <c r="I327">
+        <v>6</v>
+      </c>
+      <c r="J327">
+        <v>4</v>
+      </c>
+      <c r="K327">
+        <v>3</v>
+      </c>
+      <c r="L327">
+        <v>58</v>
+      </c>
+      <c r="M327">
+        <v>37</v>
+      </c>
+      <c r="N327">
+        <v>23</v>
+      </c>
+      <c r="O327">
+        <v>1019</v>
+      </c>
+      <c r="P327">
+        <v>1017</v>
+      </c>
+      <c r="Q327">
+        <v>1015</v>
+      </c>
+      <c r="R327">
+        <v>10</v>
+      </c>
+      <c r="S327">
+        <v>10</v>
+      </c>
+      <c r="T327">
+        <v>10</v>
+      </c>
+      <c r="U327">
+        <v>23</v>
+      </c>
+      <c r="V327">
+        <v>13</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>1</v>
+      </c>
+      <c r="AA327">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>89</v>
       </c>
@@ -5937,8 +10273,68 @@
       <c r="E328">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F328">
+        <v>25</v>
+      </c>
+      <c r="G328">
+        <v>19</v>
+      </c>
+      <c r="H328">
+        <v>13</v>
+      </c>
+      <c r="I328">
+        <v>7</v>
+      </c>
+      <c r="J328">
+        <v>6</v>
+      </c>
+      <c r="K328">
+        <v>5</v>
+      </c>
+      <c r="L328">
+        <v>58</v>
+      </c>
+      <c r="M328">
+        <v>39</v>
+      </c>
+      <c r="N328">
+        <v>28</v>
+      </c>
+      <c r="O328">
+        <v>1022</v>
+      </c>
+      <c r="P328">
+        <v>1021</v>
+      </c>
+      <c r="Q328">
+        <v>1020</v>
+      </c>
+      <c r="R328">
+        <v>10</v>
+      </c>
+      <c r="S328">
+        <v>10</v>
+      </c>
+      <c r="T328">
+        <v>10</v>
+      </c>
+      <c r="U328">
+        <v>23</v>
+      </c>
+      <c r="V328">
+        <v>10</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>2</v>
+      </c>
+      <c r="AA328">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>89</v>
       </c>
@@ -5954,8 +10350,68 @@
       <c r="E329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F329">
+        <v>26</v>
+      </c>
+      <c r="G329">
+        <v>19</v>
+      </c>
+      <c r="H329">
+        <v>12</v>
+      </c>
+      <c r="I329">
+        <v>5</v>
+      </c>
+      <c r="J329">
+        <v>3</v>
+      </c>
+      <c r="K329">
+        <v>1</v>
+      </c>
+      <c r="L329">
+        <v>58</v>
+      </c>
+      <c r="M329">
+        <v>30</v>
+      </c>
+      <c r="N329">
+        <v>20</v>
+      </c>
+      <c r="O329">
+        <v>1022</v>
+      </c>
+      <c r="P329">
+        <v>1021</v>
+      </c>
+      <c r="Q329">
+        <v>1019</v>
+      </c>
+      <c r="R329">
+        <v>10</v>
+      </c>
+      <c r="S329">
+        <v>10</v>
+      </c>
+      <c r="T329">
+        <v>10</v>
+      </c>
+      <c r="U329">
+        <v>19</v>
+      </c>
+      <c r="V329">
+        <v>10</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>2</v>
+      </c>
+      <c r="AA329">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>89</v>
       </c>
@@ -5971,8 +10427,68 @@
       <c r="E330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F330">
+        <v>25</v>
+      </c>
+      <c r="G330">
+        <v>18</v>
+      </c>
+      <c r="H330">
+        <v>10</v>
+      </c>
+      <c r="I330">
+        <v>6</v>
+      </c>
+      <c r="J330">
+        <v>4</v>
+      </c>
+      <c r="K330">
+        <v>2</v>
+      </c>
+      <c r="L330">
+        <v>58</v>
+      </c>
+      <c r="M330">
+        <v>34</v>
+      </c>
+      <c r="N330">
+        <v>24</v>
+      </c>
+      <c r="O330">
+        <v>1022</v>
+      </c>
+      <c r="P330">
+        <v>1021</v>
+      </c>
+      <c r="Q330">
+        <v>1020</v>
+      </c>
+      <c r="R330">
+        <v>10</v>
+      </c>
+      <c r="S330">
+        <v>10</v>
+      </c>
+      <c r="T330">
+        <v>10</v>
+      </c>
+      <c r="U330">
+        <v>11</v>
+      </c>
+      <c r="V330">
+        <v>6</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>4</v>
+      </c>
+      <c r="AA330">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>89</v>
       </c>
@@ -5988,8 +10504,56 @@
       <c r="E331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331">
+        <v>24</v>
+      </c>
+      <c r="G331">
+        <v>14</v>
+      </c>
+      <c r="H331">
+        <v>6</v>
+      </c>
+      <c r="I331">
+        <v>7</v>
+      </c>
+      <c r="J331">
+        <v>3</v>
+      </c>
+      <c r="K331">
+        <v>-2</v>
+      </c>
+      <c r="L331">
+        <v>76</v>
+      </c>
+      <c r="M331">
+        <v>38</v>
+      </c>
+      <c r="N331">
+        <v>19</v>
+      </c>
+      <c r="O331">
+        <v>1025</v>
+      </c>
+      <c r="P331">
+        <v>1024</v>
+      </c>
+      <c r="Q331">
+        <v>1022</v>
+      </c>
+      <c r="U331">
+        <v>11</v>
+      </c>
+      <c r="V331">
+        <v>3</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>89</v>
       </c>
@@ -6005,8 +10569,56 @@
       <c r="E332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332">
+        <v>26</v>
+      </c>
+      <c r="G332">
+        <v>17</v>
+      </c>
+      <c r="H332">
+        <v>9</v>
+      </c>
+      <c r="I332">
+        <v>4</v>
+      </c>
+      <c r="J332">
+        <v>2</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>54</v>
+      </c>
+      <c r="M332">
+        <v>33</v>
+      </c>
+      <c r="N332">
+        <v>20</v>
+      </c>
+      <c r="O332">
+        <v>1027</v>
+      </c>
+      <c r="P332">
+        <v>1026</v>
+      </c>
+      <c r="Q332">
+        <v>1024</v>
+      </c>
+      <c r="U332">
+        <v>8</v>
+      </c>
+      <c r="V332">
+        <v>5</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>89</v>
       </c>
@@ -6022,8 +10634,56 @@
       <c r="E333">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F333">
+        <v>26</v>
+      </c>
+      <c r="G333">
+        <v>21</v>
+      </c>
+      <c r="H333">
+        <v>16</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>-1</v>
+      </c>
+      <c r="L333">
+        <v>31</v>
+      </c>
+      <c r="M333">
+        <v>24</v>
+      </c>
+      <c r="N333">
+        <v>20</v>
+      </c>
+      <c r="O333">
+        <v>1027</v>
+      </c>
+      <c r="P333">
+        <v>1025</v>
+      </c>
+      <c r="Q333">
+        <v>1024</v>
+      </c>
+      <c r="U333">
+        <v>14</v>
+      </c>
+      <c r="V333">
+        <v>6</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>89</v>
       </c>
@@ -6039,8 +10699,56 @@
       <c r="E334">
         <v>6</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F334">
+        <v>27</v>
+      </c>
+      <c r="G334">
+        <v>19</v>
+      </c>
+      <c r="H334">
+        <v>12</v>
+      </c>
+      <c r="I334">
+        <v>2</v>
+      </c>
+      <c r="J334">
+        <v>-1</v>
+      </c>
+      <c r="K334">
+        <v>-2</v>
+      </c>
+      <c r="L334">
+        <v>41</v>
+      </c>
+      <c r="M334">
+        <v>23</v>
+      </c>
+      <c r="N334">
+        <v>15</v>
+      </c>
+      <c r="O334">
+        <v>1022</v>
+      </c>
+      <c r="P334">
+        <v>1020</v>
+      </c>
+      <c r="Q334">
+        <v>1018</v>
+      </c>
+      <c r="U334">
+        <v>19</v>
+      </c>
+      <c r="V334">
+        <v>5</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>89</v>
       </c>
@@ -6056,8 +10764,68 @@
       <c r="E335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F335">
+        <v>19</v>
+      </c>
+      <c r="G335">
+        <v>16</v>
+      </c>
+      <c r="H335">
+        <v>13</v>
+      </c>
+      <c r="I335">
+        <v>9</v>
+      </c>
+      <c r="J335">
+        <v>7</v>
+      </c>
+      <c r="K335">
+        <v>7</v>
+      </c>
+      <c r="L335">
+        <v>77</v>
+      </c>
+      <c r="M335">
+        <v>56</v>
+      </c>
+      <c r="N335">
+        <v>46</v>
+      </c>
+      <c r="O335">
+        <v>1024</v>
+      </c>
+      <c r="P335">
+        <v>1022</v>
+      </c>
+      <c r="Q335">
+        <v>1019</v>
+      </c>
+      <c r="R335">
+        <v>10</v>
+      </c>
+      <c r="S335">
+        <v>10</v>
+      </c>
+      <c r="T335">
+        <v>10</v>
+      </c>
+      <c r="U335">
+        <v>52</v>
+      </c>
+      <c r="V335">
+        <v>40</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>1</v>
+      </c>
+      <c r="AA335">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>89</v>
       </c>
@@ -6073,8 +10841,68 @@
       <c r="E336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336">
+        <v>22</v>
+      </c>
+      <c r="G336">
+        <v>16</v>
+      </c>
+      <c r="H336">
+        <v>9</v>
+      </c>
+      <c r="I336">
+        <v>7</v>
+      </c>
+      <c r="J336">
+        <v>6</v>
+      </c>
+      <c r="K336">
+        <v>4</v>
+      </c>
+      <c r="L336">
+        <v>76</v>
+      </c>
+      <c r="M336">
+        <v>48</v>
+      </c>
+      <c r="N336">
+        <v>31</v>
+      </c>
+      <c r="O336">
+        <v>1022</v>
+      </c>
+      <c r="P336">
+        <v>1020</v>
+      </c>
+      <c r="Q336">
+        <v>1019</v>
+      </c>
+      <c r="R336">
+        <v>10</v>
+      </c>
+      <c r="S336">
+        <v>10</v>
+      </c>
+      <c r="T336">
+        <v>10</v>
+      </c>
+      <c r="U336">
+        <v>19</v>
+      </c>
+      <c r="V336">
+        <v>10</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>1</v>
+      </c>
+      <c r="AA336">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>89</v>
       </c>
@@ -6090,8 +10918,68 @@
       <c r="E337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F337">
+        <v>20</v>
+      </c>
+      <c r="G337">
+        <v>11</v>
+      </c>
+      <c r="H337">
+        <v>3</v>
+      </c>
+      <c r="I337">
+        <v>7</v>
+      </c>
+      <c r="J337">
+        <v>5</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>81</v>
+      </c>
+      <c r="M337">
+        <v>56</v>
+      </c>
+      <c r="N337">
+        <v>37</v>
+      </c>
+      <c r="O337">
+        <v>1023</v>
+      </c>
+      <c r="P337">
+        <v>1021</v>
+      </c>
+      <c r="Q337">
+        <v>1020</v>
+      </c>
+      <c r="R337">
+        <v>10</v>
+      </c>
+      <c r="S337">
+        <v>10</v>
+      </c>
+      <c r="T337">
+        <v>10</v>
+      </c>
+      <c r="U337">
+        <v>14</v>
+      </c>
+      <c r="V337">
+        <v>6</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>3</v>
+      </c>
+      <c r="AA337">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>89</v>
       </c>
@@ -6107,8 +10995,71 @@
       <c r="E338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F338">
+        <v>18</v>
+      </c>
+      <c r="G338">
+        <v>11</v>
+      </c>
+      <c r="H338">
+        <v>5</v>
+      </c>
+      <c r="I338">
+        <v>7</v>
+      </c>
+      <c r="J338">
+        <v>6</v>
+      </c>
+      <c r="K338">
+        <v>1</v>
+      </c>
+      <c r="L338">
+        <v>81</v>
+      </c>
+      <c r="M338">
+        <v>60</v>
+      </c>
+      <c r="N338">
+        <v>32</v>
+      </c>
+      <c r="O338">
+        <v>1022</v>
+      </c>
+      <c r="P338">
+        <v>1021</v>
+      </c>
+      <c r="Q338">
+        <v>1019</v>
+      </c>
+      <c r="R338">
+        <v>10</v>
+      </c>
+      <c r="S338">
+        <v>10</v>
+      </c>
+      <c r="T338">
+        <v>10</v>
+      </c>
+      <c r="U338">
+        <v>34</v>
+      </c>
+      <c r="V338">
+        <v>5</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>3</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA338">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>89</v>
       </c>
@@ -6124,8 +11075,71 @@
       <c r="E339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F339">
+        <v>17</v>
+      </c>
+      <c r="G339">
+        <v>13</v>
+      </c>
+      <c r="H339">
+        <v>9</v>
+      </c>
+      <c r="I339">
+        <v>9</v>
+      </c>
+      <c r="J339">
+        <v>7</v>
+      </c>
+      <c r="K339">
+        <v>4</v>
+      </c>
+      <c r="L339">
+        <v>100</v>
+      </c>
+      <c r="M339">
+        <v>71</v>
+      </c>
+      <c r="N339">
+        <v>45</v>
+      </c>
+      <c r="O339">
+        <v>1019</v>
+      </c>
+      <c r="P339">
+        <v>1018</v>
+      </c>
+      <c r="Q339">
+        <v>1016</v>
+      </c>
+      <c r="R339">
+        <v>10</v>
+      </c>
+      <c r="S339">
+        <v>10</v>
+      </c>
+      <c r="T339">
+        <v>7</v>
+      </c>
+      <c r="U339">
+        <v>37</v>
+      </c>
+      <c r="V339">
+        <v>10</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>5</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>89</v>
       </c>
@@ -6141,8 +11155,68 @@
       <c r="E340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F340">
+        <v>19</v>
+      </c>
+      <c r="G340">
+        <v>10</v>
+      </c>
+      <c r="H340">
+        <v>2</v>
+      </c>
+      <c r="I340">
+        <v>6</v>
+      </c>
+      <c r="J340">
+        <v>4</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>93</v>
+      </c>
+      <c r="M340">
+        <v>62</v>
+      </c>
+      <c r="N340">
+        <v>35</v>
+      </c>
+      <c r="O340">
+        <v>1021</v>
+      </c>
+      <c r="P340">
+        <v>1019</v>
+      </c>
+      <c r="Q340">
+        <v>1017</v>
+      </c>
+      <c r="R340">
+        <v>10</v>
+      </c>
+      <c r="S340">
+        <v>10</v>
+      </c>
+      <c r="T340">
+        <v>10</v>
+      </c>
+      <c r="U340">
+        <v>11</v>
+      </c>
+      <c r="V340">
+        <v>6</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>2</v>
+      </c>
+      <c r="AA340">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>89</v>
       </c>
@@ -6158,8 +11232,56 @@
       <c r="E341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F341">
+        <v>20</v>
+      </c>
+      <c r="G341">
+        <v>13</v>
+      </c>
+      <c r="H341">
+        <v>6</v>
+      </c>
+      <c r="I341">
+        <v>4</v>
+      </c>
+      <c r="J341">
+        <v>3</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>76</v>
+      </c>
+      <c r="M341">
+        <v>45</v>
+      </c>
+      <c r="N341">
+        <v>33</v>
+      </c>
+      <c r="O341">
+        <v>1019</v>
+      </c>
+      <c r="P341">
+        <v>1018</v>
+      </c>
+      <c r="Q341">
+        <v>1018</v>
+      </c>
+      <c r="U341">
+        <v>14</v>
+      </c>
+      <c r="V341">
+        <v>11</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>89</v>
       </c>
@@ -6175,8 +11297,68 @@
       <c r="E342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F342">
+        <v>21</v>
+      </c>
+      <c r="G342">
+        <v>17</v>
+      </c>
+      <c r="H342">
+        <v>13</v>
+      </c>
+      <c r="I342">
+        <v>3</v>
+      </c>
+      <c r="J342">
+        <v>2</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>47</v>
+      </c>
+      <c r="M342">
+        <v>35</v>
+      </c>
+      <c r="N342">
+        <v>27</v>
+      </c>
+      <c r="O342">
+        <v>1018</v>
+      </c>
+      <c r="P342">
+        <v>1017</v>
+      </c>
+      <c r="Q342">
+        <v>1015</v>
+      </c>
+      <c r="R342">
+        <v>10</v>
+      </c>
+      <c r="S342">
+        <v>10</v>
+      </c>
+      <c r="T342">
+        <v>10</v>
+      </c>
+      <c r="U342">
+        <v>26</v>
+      </c>
+      <c r="V342">
+        <v>18</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>5</v>
+      </c>
+      <c r="AA342">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>89</v>
       </c>
@@ -6192,8 +11374,68 @@
       <c r="E343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F343">
+        <v>17</v>
+      </c>
+      <c r="G343">
+        <v>14</v>
+      </c>
+      <c r="H343">
+        <v>13</v>
+      </c>
+      <c r="I343">
+        <v>2</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>-2</v>
+      </c>
+      <c r="L343">
+        <v>47</v>
+      </c>
+      <c r="M343">
+        <v>37</v>
+      </c>
+      <c r="N343">
+        <v>29</v>
+      </c>
+      <c r="O343">
+        <v>1019</v>
+      </c>
+      <c r="P343">
+        <v>1019</v>
+      </c>
+      <c r="Q343">
+        <v>1018</v>
+      </c>
+      <c r="R343">
+        <v>10</v>
+      </c>
+      <c r="S343">
+        <v>10</v>
+      </c>
+      <c r="T343">
+        <v>10</v>
+      </c>
+      <c r="U343">
+        <v>29</v>
+      </c>
+      <c r="V343">
+        <v>18</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>5</v>
+      </c>
+      <c r="AA343">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>89</v>
       </c>
@@ -6209,8 +11451,68 @@
       <c r="E344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F344">
+        <v>12</v>
+      </c>
+      <c r="G344">
+        <v>7</v>
+      </c>
+      <c r="H344">
+        <v>3</v>
+      </c>
+      <c r="I344">
+        <v>4</v>
+      </c>
+      <c r="J344">
+        <v>3</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>87</v>
+      </c>
+      <c r="M344">
+        <v>68</v>
+      </c>
+      <c r="N344">
+        <v>54</v>
+      </c>
+      <c r="O344">
+        <v>1021</v>
+      </c>
+      <c r="P344">
+        <v>1020</v>
+      </c>
+      <c r="Q344">
+        <v>1018</v>
+      </c>
+      <c r="R344">
+        <v>10</v>
+      </c>
+      <c r="S344">
+        <v>10</v>
+      </c>
+      <c r="T344">
+        <v>10</v>
+      </c>
+      <c r="U344">
+        <v>29</v>
+      </c>
+      <c r="V344">
+        <v>3</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>4</v>
+      </c>
+      <c r="AA344">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>89</v>
       </c>
@@ -6226,8 +11528,68 @@
       <c r="E345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F345">
+        <v>9</v>
+      </c>
+      <c r="G345">
+        <v>6</v>
+      </c>
+      <c r="H345">
+        <v>3</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>-1</v>
+      </c>
+      <c r="L345">
+        <v>87</v>
+      </c>
+      <c r="M345">
+        <v>67</v>
+      </c>
+      <c r="N345">
+        <v>53</v>
+      </c>
+      <c r="O345">
+        <v>1023</v>
+      </c>
+      <c r="P345">
+        <v>1021</v>
+      </c>
+      <c r="Q345">
+        <v>1020</v>
+      </c>
+      <c r="R345">
+        <v>10</v>
+      </c>
+      <c r="S345">
+        <v>10</v>
+      </c>
+      <c r="T345">
+        <v>10</v>
+      </c>
+      <c r="U345">
+        <v>35</v>
+      </c>
+      <c r="V345">
+        <v>14</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>7</v>
+      </c>
+      <c r="AA345">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>89</v>
       </c>
@@ -6243,8 +11605,68 @@
       <c r="E346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F346">
+        <v>12</v>
+      </c>
+      <c r="G346">
+        <v>7</v>
+      </c>
+      <c r="H346">
+        <v>2</v>
+      </c>
+      <c r="I346">
+        <v>4</v>
+      </c>
+      <c r="J346">
+        <v>2</v>
+      </c>
+      <c r="K346">
+        <v>-1</v>
+      </c>
+      <c r="L346">
+        <v>81</v>
+      </c>
+      <c r="M346">
+        <v>67</v>
+      </c>
+      <c r="N346">
+        <v>51</v>
+      </c>
+      <c r="O346">
+        <v>1028</v>
+      </c>
+      <c r="P346">
+        <v>1027</v>
+      </c>
+      <c r="Q346">
+        <v>1026</v>
+      </c>
+      <c r="R346">
+        <v>10</v>
+      </c>
+      <c r="S346">
+        <v>10</v>
+      </c>
+      <c r="T346">
+        <v>10</v>
+      </c>
+      <c r="U346">
+        <v>11</v>
+      </c>
+      <c r="V346">
+        <v>6</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>1</v>
+      </c>
+      <c r="AA346">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>89</v>
       </c>
@@ -6260,8 +11682,56 @@
       <c r="E347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F347">
+        <v>13</v>
+      </c>
+      <c r="G347">
+        <v>4</v>
+      </c>
+      <c r="H347">
+        <v>-3</v>
+      </c>
+      <c r="I347">
+        <v>3</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+      <c r="K347">
+        <v>-5</v>
+      </c>
+      <c r="L347">
+        <v>87</v>
+      </c>
+      <c r="M347">
+        <v>61</v>
+      </c>
+      <c r="N347">
+        <v>41</v>
+      </c>
+      <c r="O347">
+        <v>1030</v>
+      </c>
+      <c r="P347">
+        <v>1028</v>
+      </c>
+      <c r="Q347">
+        <v>1027</v>
+      </c>
+      <c r="U347">
+        <v>14</v>
+      </c>
+      <c r="V347">
+        <v>5</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>89</v>
       </c>
@@ -6277,8 +11747,56 @@
       <c r="E348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F348">
+        <v>17</v>
+      </c>
+      <c r="G348">
+        <v>7</v>
+      </c>
+      <c r="H348">
+        <v>-3</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>-3</v>
+      </c>
+      <c r="K348">
+        <v>-9</v>
+      </c>
+      <c r="L348">
+        <v>64</v>
+      </c>
+      <c r="M348">
+        <v>43</v>
+      </c>
+      <c r="N348">
+        <v>24</v>
+      </c>
+      <c r="O348">
+        <v>1026</v>
+      </c>
+      <c r="P348">
+        <v>1024</v>
+      </c>
+      <c r="Q348">
+        <v>1023</v>
+      </c>
+      <c r="U348">
+        <v>14</v>
+      </c>
+      <c r="V348">
+        <v>8</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>89</v>
       </c>
@@ -6294,8 +11812,56 @@
       <c r="E349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F349">
+        <v>18</v>
+      </c>
+      <c r="G349">
+        <v>8</v>
+      </c>
+      <c r="H349">
+        <v>-1</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>-2</v>
+      </c>
+      <c r="K349">
+        <v>-6</v>
+      </c>
+      <c r="L349">
+        <v>69</v>
+      </c>
+      <c r="M349">
+        <v>44</v>
+      </c>
+      <c r="N349">
+        <v>27</v>
+      </c>
+      <c r="O349">
+        <v>1024</v>
+      </c>
+      <c r="P349">
+        <v>1022</v>
+      </c>
+      <c r="Q349">
+        <v>1020</v>
+      </c>
+      <c r="U349">
+        <v>8</v>
+      </c>
+      <c r="V349">
+        <v>5</v>
+      </c>
+      <c r="X349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>89</v>
       </c>
@@ -6311,8 +11877,56 @@
       <c r="E350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F350">
+        <v>18</v>
+      </c>
+      <c r="G350">
+        <v>11</v>
+      </c>
+      <c r="H350">
+        <v>5</v>
+      </c>
+      <c r="I350">
+        <v>3</v>
+      </c>
+      <c r="J350">
+        <v>-2</v>
+      </c>
+      <c r="K350">
+        <v>-6</v>
+      </c>
+      <c r="L350">
+        <v>65</v>
+      </c>
+      <c r="M350">
+        <v>36</v>
+      </c>
+      <c r="N350">
+        <v>19</v>
+      </c>
+      <c r="O350">
+        <v>1023</v>
+      </c>
+      <c r="P350">
+        <v>1021</v>
+      </c>
+      <c r="Q350">
+        <v>1020</v>
+      </c>
+      <c r="U350">
+        <v>23</v>
+      </c>
+      <c r="V350">
+        <v>14</v>
+      </c>
+      <c r="X350">
+        <v>0</v>
+      </c>
+      <c r="AA350">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>89</v>
       </c>
@@ -6328,8 +11942,68 @@
       <c r="E351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F351">
+        <v>18</v>
+      </c>
+      <c r="G351">
+        <v>12</v>
+      </c>
+      <c r="H351">
+        <v>6</v>
+      </c>
+      <c r="I351">
+        <v>3</v>
+      </c>
+      <c r="J351">
+        <v>-1</v>
+      </c>
+      <c r="K351">
+        <v>-3</v>
+      </c>
+      <c r="L351">
+        <v>66</v>
+      </c>
+      <c r="M351">
+        <v>39</v>
+      </c>
+      <c r="N351">
+        <v>26</v>
+      </c>
+      <c r="O351">
+        <v>1024</v>
+      </c>
+      <c r="P351">
+        <v>1022</v>
+      </c>
+      <c r="Q351">
+        <v>1021</v>
+      </c>
+      <c r="R351">
+        <v>10</v>
+      </c>
+      <c r="S351">
+        <v>10</v>
+      </c>
+      <c r="T351">
+        <v>10</v>
+      </c>
+      <c r="U351">
+        <v>26</v>
+      </c>
+      <c r="V351">
+        <v>14</v>
+      </c>
+      <c r="X351">
+        <v>0</v>
+      </c>
+      <c r="Y351">
+        <v>1</v>
+      </c>
+      <c r="AA351">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>89</v>
       </c>
@@ -6345,8 +12019,68 @@
       <c r="E352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F352">
+        <v>17</v>
+      </c>
+      <c r="G352">
+        <v>9</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+      <c r="I352">
+        <v>3</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>-3</v>
+      </c>
+      <c r="L352">
+        <v>70</v>
+      </c>
+      <c r="M352">
+        <v>44</v>
+      </c>
+      <c r="N352">
+        <v>32</v>
+      </c>
+      <c r="O352">
+        <v>1025</v>
+      </c>
+      <c r="P352">
+        <v>1024</v>
+      </c>
+      <c r="Q352">
+        <v>1023</v>
+      </c>
+      <c r="R352">
+        <v>10</v>
+      </c>
+      <c r="S352">
+        <v>10</v>
+      </c>
+      <c r="T352">
+        <v>10</v>
+      </c>
+      <c r="U352">
+        <v>34</v>
+      </c>
+      <c r="V352">
+        <v>11</v>
+      </c>
+      <c r="X352">
+        <v>0</v>
+      </c>
+      <c r="Y352">
+        <v>1</v>
+      </c>
+      <c r="AA352">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>89</v>
       </c>
@@ -6362,8 +12096,68 @@
       <c r="E353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F353">
+        <v>18</v>
+      </c>
+      <c r="G353">
+        <v>11</v>
+      </c>
+      <c r="H353">
+        <v>4</v>
+      </c>
+      <c r="I353">
+        <v>2</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>-4</v>
+      </c>
+      <c r="L353">
+        <v>61</v>
+      </c>
+      <c r="M353">
+        <v>41</v>
+      </c>
+      <c r="N353">
+        <v>32</v>
+      </c>
+      <c r="O353">
+        <v>1028</v>
+      </c>
+      <c r="P353">
+        <v>1027</v>
+      </c>
+      <c r="Q353">
+        <v>1025</v>
+      </c>
+      <c r="R353">
+        <v>10</v>
+      </c>
+      <c r="S353">
+        <v>10</v>
+      </c>
+      <c r="T353">
+        <v>10</v>
+      </c>
+      <c r="U353">
+        <v>14</v>
+      </c>
+      <c r="V353">
+        <v>13</v>
+      </c>
+      <c r="X353">
+        <v>0</v>
+      </c>
+      <c r="Y353">
+        <v>1</v>
+      </c>
+      <c r="AA353">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>89</v>
       </c>
@@ -6379,8 +12173,56 @@
       <c r="E354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F354">
+        <v>17</v>
+      </c>
+      <c r="G354">
+        <v>11</v>
+      </c>
+      <c r="H354">
+        <v>6</v>
+      </c>
+      <c r="I354">
+        <v>-1</v>
+      </c>
+      <c r="J354">
+        <v>-4</v>
+      </c>
+      <c r="K354">
+        <v>-7</v>
+      </c>
+      <c r="L354">
+        <v>57</v>
+      </c>
+      <c r="M354">
+        <v>30</v>
+      </c>
+      <c r="N354">
+        <v>20</v>
+      </c>
+      <c r="O354">
+        <v>1026</v>
+      </c>
+      <c r="P354">
+        <v>1024</v>
+      </c>
+      <c r="Q354">
+        <v>1023</v>
+      </c>
+      <c r="U354">
+        <v>19</v>
+      </c>
+      <c r="V354">
+        <v>11</v>
+      </c>
+      <c r="X354">
+        <v>0</v>
+      </c>
+      <c r="AA354">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>89</v>
       </c>
@@ -6396,8 +12238,56 @@
       <c r="E355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F355">
+        <v>18</v>
+      </c>
+      <c r="G355">
+        <v>10</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>-2</v>
+      </c>
+      <c r="K355">
+        <v>-6</v>
+      </c>
+      <c r="L355">
+        <v>56</v>
+      </c>
+      <c r="M355">
+        <v>36</v>
+      </c>
+      <c r="N355">
+        <v>27</v>
+      </c>
+      <c r="O355">
+        <v>1022</v>
+      </c>
+      <c r="P355">
+        <v>1020</v>
+      </c>
+      <c r="Q355">
+        <v>1018</v>
+      </c>
+      <c r="U355">
+        <v>8</v>
+      </c>
+      <c r="V355">
+        <v>5</v>
+      </c>
+      <c r="X355">
+        <v>0</v>
+      </c>
+      <c r="AA355">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>89</v>
       </c>
@@ -6413,8 +12303,56 @@
       <c r="E356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F356">
+        <v>18</v>
+      </c>
+      <c r="G356">
+        <v>10</v>
+      </c>
+      <c r="H356">
+        <v>2</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>-2</v>
+      </c>
+      <c r="K356">
+        <v>-5</v>
+      </c>
+      <c r="L356">
+        <v>60</v>
+      </c>
+      <c r="M356">
+        <v>38</v>
+      </c>
+      <c r="N356">
+        <v>26</v>
+      </c>
+      <c r="O356">
+        <v>1019</v>
+      </c>
+      <c r="P356">
+        <v>1018</v>
+      </c>
+      <c r="Q356">
+        <v>1018</v>
+      </c>
+      <c r="U356">
+        <v>19</v>
+      </c>
+      <c r="V356">
+        <v>10</v>
+      </c>
+      <c r="X356">
+        <v>0</v>
+      </c>
+      <c r="AA356">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>89</v>
       </c>
@@ -6430,8 +12368,56 @@
       <c r="E357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F357">
+        <v>17</v>
+      </c>
+      <c r="G357">
+        <v>7</v>
+      </c>
+      <c r="H357">
+        <v>-2</v>
+      </c>
+      <c r="I357">
+        <v>-2</v>
+      </c>
+      <c r="J357">
+        <v>-4</v>
+      </c>
+      <c r="K357">
+        <v>-10</v>
+      </c>
+      <c r="L357">
+        <v>60</v>
+      </c>
+      <c r="M357">
+        <v>37</v>
+      </c>
+      <c r="N357">
+        <v>25</v>
+      </c>
+      <c r="O357">
+        <v>1027</v>
+      </c>
+      <c r="P357">
+        <v>1026</v>
+      </c>
+      <c r="Q357">
+        <v>1024</v>
+      </c>
+      <c r="U357">
+        <v>14</v>
+      </c>
+      <c r="V357">
+        <v>8</v>
+      </c>
+      <c r="X357">
+        <v>0</v>
+      </c>
+      <c r="AA357">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>89</v>
       </c>
@@ -6447,8 +12433,56 @@
       <c r="E358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F358">
+        <v>17</v>
+      </c>
+      <c r="G358">
+        <v>8</v>
+      </c>
+      <c r="H358">
+        <v>-1</v>
+      </c>
+      <c r="I358">
+        <v>-1</v>
+      </c>
+      <c r="J358">
+        <v>-4</v>
+      </c>
+      <c r="K358">
+        <v>-8</v>
+      </c>
+      <c r="L358">
+        <v>60</v>
+      </c>
+      <c r="M358">
+        <v>40</v>
+      </c>
+      <c r="N358">
+        <v>26</v>
+      </c>
+      <c r="O358">
+        <v>1031</v>
+      </c>
+      <c r="P358">
+        <v>1030</v>
+      </c>
+      <c r="Q358">
+        <v>1029</v>
+      </c>
+      <c r="U358">
+        <v>14</v>
+      </c>
+      <c r="V358">
+        <v>6</v>
+      </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
+      <c r="AA358">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>89</v>
       </c>
@@ -6464,8 +12498,56 @@
       <c r="E359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F359">
+        <v>17</v>
+      </c>
+      <c r="G359">
+        <v>8</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>-3</v>
+      </c>
+      <c r="K359">
+        <v>-5</v>
+      </c>
+      <c r="L359">
+        <v>69</v>
+      </c>
+      <c r="M359">
+        <v>39</v>
+      </c>
+      <c r="N359">
+        <v>24</v>
+      </c>
+      <c r="O359">
+        <v>1030</v>
+      </c>
+      <c r="P359">
+        <v>1028</v>
+      </c>
+      <c r="Q359">
+        <v>1026</v>
+      </c>
+      <c r="U359">
+        <v>14</v>
+      </c>
+      <c r="V359">
+        <v>3</v>
+      </c>
+      <c r="X359">
+        <v>0</v>
+      </c>
+      <c r="AA359">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>89</v>
       </c>
@@ -6481,8 +12563,56 @@
       <c r="E360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F360">
+        <v>17</v>
+      </c>
+      <c r="G360">
+        <v>10</v>
+      </c>
+      <c r="H360">
+        <v>4</v>
+      </c>
+      <c r="I360">
+        <v>-7</v>
+      </c>
+      <c r="J360">
+        <v>-9</v>
+      </c>
+      <c r="K360">
+        <v>-11</v>
+      </c>
+      <c r="L360">
+        <v>45</v>
+      </c>
+      <c r="M360">
+        <v>24</v>
+      </c>
+      <c r="N360">
+        <v>14</v>
+      </c>
+      <c r="O360">
+        <v>1026</v>
+      </c>
+      <c r="P360">
+        <v>1024</v>
+      </c>
+      <c r="Q360">
+        <v>1023</v>
+      </c>
+      <c r="U360">
+        <v>19</v>
+      </c>
+      <c r="V360">
+        <v>6</v>
+      </c>
+      <c r="X360">
+        <v>0</v>
+      </c>
+      <c r="AA360">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>89</v>
       </c>
@@ -6498,8 +12628,56 @@
       <c r="E361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F361">
+        <v>17</v>
+      </c>
+      <c r="G361">
+        <v>10</v>
+      </c>
+      <c r="H361">
+        <v>4</v>
+      </c>
+      <c r="I361">
+        <v>-8</v>
+      </c>
+      <c r="J361">
+        <v>-9</v>
+      </c>
+      <c r="K361">
+        <v>-11</v>
+      </c>
+      <c r="L361">
+        <v>42</v>
+      </c>
+      <c r="M361">
+        <v>23</v>
+      </c>
+      <c r="N361">
+        <v>16</v>
+      </c>
+      <c r="O361">
+        <v>1025</v>
+      </c>
+      <c r="P361">
+        <v>1024</v>
+      </c>
+      <c r="Q361">
+        <v>1023</v>
+      </c>
+      <c r="U361">
+        <v>11</v>
+      </c>
+      <c r="V361">
+        <v>6</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="AA361">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>89</v>
       </c>
@@ -6515,8 +12693,56 @@
       <c r="E362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F362">
+        <v>15</v>
+      </c>
+      <c r="G362">
+        <v>6</v>
+      </c>
+      <c r="H362">
+        <v>-3</v>
+      </c>
+      <c r="I362">
+        <v>-7</v>
+      </c>
+      <c r="J362">
+        <v>-9</v>
+      </c>
+      <c r="K362">
+        <v>-14</v>
+      </c>
+      <c r="L362">
+        <v>51</v>
+      </c>
+      <c r="M362">
+        <v>29</v>
+      </c>
+      <c r="N362">
+        <v>20</v>
+      </c>
+      <c r="O362">
+        <v>1026</v>
+      </c>
+      <c r="P362">
+        <v>1025</v>
+      </c>
+      <c r="Q362">
+        <v>1024</v>
+      </c>
+      <c r="U362">
+        <v>14</v>
+      </c>
+      <c r="V362">
+        <v>5</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="AA362">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>89</v>
       </c>
@@ -6532,8 +12758,56 @@
       <c r="E363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F363">
+        <v>13</v>
+      </c>
+      <c r="G363">
+        <v>4</v>
+      </c>
+      <c r="H363">
+        <v>-4</v>
+      </c>
+      <c r="I363">
+        <v>-4</v>
+      </c>
+      <c r="J363">
+        <v>-6</v>
+      </c>
+      <c r="K363">
+        <v>-11</v>
+      </c>
+      <c r="L363">
+        <v>59</v>
+      </c>
+      <c r="M363">
+        <v>40</v>
+      </c>
+      <c r="N363">
+        <v>31</v>
+      </c>
+      <c r="O363">
+        <v>1024</v>
+      </c>
+      <c r="P363">
+        <v>1021</v>
+      </c>
+      <c r="Q363">
+        <v>1019</v>
+      </c>
+      <c r="U363">
+        <v>19</v>
+      </c>
+      <c r="V363">
+        <v>5</v>
+      </c>
+      <c r="X363">
+        <v>0</v>
+      </c>
+      <c r="AA363">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>89</v>
       </c>
@@ -6549,8 +12823,56 @@
       <c r="E364">
         <v>6</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F364">
+        <v>15</v>
+      </c>
+      <c r="G364">
+        <v>6</v>
+      </c>
+      <c r="H364">
+        <v>-3</v>
+      </c>
+      <c r="I364">
+        <v>-5</v>
+      </c>
+      <c r="J364">
+        <v>-7</v>
+      </c>
+      <c r="K364">
+        <v>-11</v>
+      </c>
+      <c r="L364">
+        <v>55</v>
+      </c>
+      <c r="M364">
+        <v>35</v>
+      </c>
+      <c r="N364">
+        <v>20</v>
+      </c>
+      <c r="O364">
+        <v>1019</v>
+      </c>
+      <c r="P364">
+        <v>1017</v>
+      </c>
+      <c r="Q364">
+        <v>1016</v>
+      </c>
+      <c r="U364">
+        <v>11</v>
+      </c>
+      <c r="V364">
+        <v>6</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>89</v>
       </c>
@@ -6565,6 +12887,54 @@
       </c>
       <c r="E365">
         <v>2</v>
+      </c>
+      <c r="F365">
+        <v>16</v>
+      </c>
+      <c r="G365">
+        <v>9</v>
+      </c>
+      <c r="H365">
+        <v>3</v>
+      </c>
+      <c r="I365">
+        <v>-5</v>
+      </c>
+      <c r="J365">
+        <v>-7</v>
+      </c>
+      <c r="K365">
+        <v>-11</v>
+      </c>
+      <c r="L365">
+        <v>37</v>
+      </c>
+      <c r="M365">
+        <v>29</v>
+      </c>
+      <c r="N365">
+        <v>22</v>
+      </c>
+      <c r="O365">
+        <v>1017</v>
+      </c>
+      <c r="P365">
+        <v>1015</v>
+      </c>
+      <c r="Q365">
+        <v>1013</v>
+      </c>
+      <c r="U365">
+        <v>14</v>
+      </c>
+      <c r="V365">
+        <v>13</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6578,7 +12948,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6590,7 +12960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
